--- a/EC/Train Runs and Enforcements 2016-05-20.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-20.xlsx
@@ -2568,112 +2568,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -15639,33 +15534,33 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="21" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V1048576">
-    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:P145 A3:R144">
-    <cfRule type="expression" dxfId="22" priority="35">
+    <cfRule type="expression" dxfId="7" priority="35">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="36">
+    <cfRule type="expression" dxfId="6" priority="36">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q145:R145">
-    <cfRule type="expression" dxfId="20" priority="77">
+    <cfRule type="expression" dxfId="5" priority="77">
       <formula>$P145&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="78">
+    <cfRule type="expression" dxfId="4" priority="78">
       <formula>$O164&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V1048576">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18903,12 +18798,12 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="N2 P2:Q2 M2:M1048576">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:N62">
-    <cfRule type="expression" dxfId="15" priority="6">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EC/Train Runs and Enforcements 2016-05-20.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-20.xlsx
@@ -2931,10 +2931,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:CK161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R122" sqref="R122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3130,7 +3131,7 @@
       <c r="CJ2" s="10"/>
       <c r="CK2" s="10"/>
     </row>
-    <row r="3" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>242</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="4" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>269</v>
       </c>
@@ -3298,7 +3299,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>263</v>
       </c>
@@ -3382,7 +3383,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="6" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>226</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B7),(B7-1)&amp;"/"&amp;B7,B7&amp;"/"&amp;(B7+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L7" s="61" t="str">
@@ -3506,13 +3507,13 @@
         <v>STORY</v>
       </c>
       <c r="M7" s="12">
-        <f t="shared" si="18"/>
+        <f>I7-F7</f>
         <v>2.0555555558530614E-2</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M7:$M7)</f>
         <v>29.600000004284084</v>
       </c>
       <c r="Q7" s="62" t="s">
@@ -3522,27 +3523,27 @@
         <v>634</v>
       </c>
       <c r="T7" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E7-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I7+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B7&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 04:02:40-0600',mode:absolute,to:'2016-05-20 04:46:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U7" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y7&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V7" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A7,3))-VALUE(LEFT(A6,3))</f>
         <v>1</v>
       </c>
       <c r="W7" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D7,LEN(D7)-4)/10000</f>
         <v>7.8100000000000003E-2</v>
       </c>
       <c r="X7" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H7,LEN(H7)-4)/10000</f>
         <v>23.328600000000002</v>
       </c>
       <c r="Y7" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X7-W7)</f>
         <v>23.250500000000002</v>
       </c>
       <c r="Z7" s="75">
@@ -3576,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B8),(B8-1)&amp;"/"&amp;B8,B8&amp;"/"&amp;(B8+1))</f>
         <v>4009/4010</v>
       </c>
       <c r="L8" s="61" t="str">
@@ -3584,13 +3585,13 @@
         <v>STORY</v>
       </c>
       <c r="M8" s="12">
-        <f t="shared" si="18"/>
+        <f>I8-F8</f>
         <v>2.7847222219861578E-2</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M8:$M8)</f>
         <v>40.099999996600673</v>
       </c>
       <c r="Q8" s="62" t="s">
@@ -3608,7 +3609,7 @@
       <c r="Z8" s="75"/>
       <c r="AA8" s="75"/>
     </row>
-    <row r="9" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>347</v>
       </c>
@@ -3640,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B9),(B9-1)&amp;"/"&amp;B9,B9&amp;"/"&amp;(B9+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L9" s="61" t="str">
@@ -3648,11 +3649,11 @@
         <v>STARKS</v>
       </c>
       <c r="M9" s="12">
-        <f t="shared" si="18"/>
+        <f>I9-F9</f>
         <v>3.3437499994761311E-2</v>
       </c>
       <c r="N9" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M9:$M9)</f>
         <v>48.149999992456287</v>
       </c>
       <c r="O9" s="13"/>
@@ -3660,11 +3661,11 @@
       <c r="Q9" s="62"/>
       <c r="R9" s="62"/>
       <c r="T9" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E9-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I9+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B9&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 04:18:28-0600',mode:absolute,to:'2016-05-20 05:10:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U9" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y9&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V9" s="74">
@@ -3672,15 +3673,15 @@
         <v>2</v>
       </c>
       <c r="W9" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D9,LEN(D9)-4)/10000</f>
         <v>4.58E-2</v>
       </c>
       <c r="X9" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H9,LEN(H9)-4)/10000</f>
         <v>23.336200000000002</v>
       </c>
       <c r="Y9" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X9-W9)</f>
         <v>23.290400000000002</v>
       </c>
       <c r="Z9" s="75" t="e">
@@ -3692,7 +3693,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>288</v>
       </c>
@@ -3724,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B10),(B10-1)&amp;"/"&amp;B10,B10&amp;"/"&amp;(B10+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L10" s="61" t="str">
@@ -3732,11 +3733,11 @@
         <v>STARKS</v>
       </c>
       <c r="M10" s="12">
-        <f t="shared" si="18"/>
+        <f>I10-F10</f>
         <v>2.7870370366144925E-2</v>
       </c>
       <c r="N10" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M10:$M10)</f>
         <v>40.133333327248693</v>
       </c>
       <c r="O10" s="13"/>
@@ -3744,27 +3745,27 @@
       <c r="Q10" s="62"/>
       <c r="R10" s="62"/>
       <c r="T10" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E10-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I10+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B10&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 05:21:15-0600',mode:absolute,to:'2016-05-20 06:05:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U10" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y10&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V10" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A10,3))-VALUE(LEFT(A9,3))</f>
         <v>1</v>
       </c>
       <c r="W10" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D10,LEN(D10)-4)/10000</f>
         <v>23.304600000000001</v>
       </c>
       <c r="X10" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H10,LEN(H10)-4)/10000</f>
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="Y10" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X10-W10)</f>
         <v>23.291599999999999</v>
       </c>
       <c r="Z10" s="75" t="e">
@@ -3776,7 +3777,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>255</v>
       </c>
@@ -3808,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B11),(B11-1)&amp;"/"&amp;B11,B11&amp;"/"&amp;(B11+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L11" s="61" t="str">
@@ -3816,11 +3817,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M11" s="12">
-        <f t="shared" si="18"/>
+        <f>I11-F11</f>
         <v>3.1597222223354038E-2</v>
       </c>
       <c r="N11" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M11:$M11)</f>
         <v>45.500000001629815</v>
       </c>
       <c r="O11" s="13"/>
@@ -3828,27 +3829,27 @@
       <c r="Q11" s="62"/>
       <c r="R11" s="62"/>
       <c r="T11" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E11-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I11+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B11&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 04:34:40-0600',mode:absolute,to:'2016-05-20 05:23:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U11" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y11&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V11" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A11,3))-VALUE(LEFT(A10,3))</f>
         <v>1</v>
       </c>
       <c r="W11" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D11,LEN(D11)-4)/10000</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X11" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H11,LEN(H11)-4)/10000</f>
         <v>23.333200000000001</v>
       </c>
       <c r="Y11" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X11-W11)</f>
         <v>23.287700000000001</v>
       </c>
       <c r="Z11" s="75" t="e">
@@ -3860,7 +3861,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>338</v>
       </c>
@@ -3892,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B12),(B12-1)&amp;"/"&amp;B12,B12&amp;"/"&amp;(B12+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L12" s="61" t="str">
@@ -3900,11 +3901,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M12" s="12">
-        <f t="shared" si="18"/>
+        <f>I12-F12</f>
         <v>2.7210648149775807E-2</v>
       </c>
       <c r="N12" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M12:$M12)</f>
         <v>39.183333335677162</v>
       </c>
       <c r="O12" s="13"/>
@@ -3912,27 +3913,27 @@
       <c r="Q12" s="62"/>
       <c r="R12" s="62"/>
       <c r="T12" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E12-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I12+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B12&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 05:37:17-0600',mode:absolute,to:'2016-05-20 06:20:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U12" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y12&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V12" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A12,3))-VALUE(LEFT(A11,3))</f>
         <v>1</v>
       </c>
       <c r="W12" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D12,LEN(D12)-4)/10000</f>
         <v>23.298300000000001</v>
       </c>
       <c r="X12" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H12,LEN(H12)-4)/10000</f>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y12" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X12-W12)</f>
         <v>23.282</v>
       </c>
       <c r="Z12" s="75">
@@ -3944,7 +3945,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="13" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>349</v>
       </c>
@@ -3976,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B13),(B13-1)&amp;"/"&amp;B13,B13&amp;"/"&amp;(B13+1))</f>
         <v>4037/4038</v>
       </c>
       <c r="L13" s="61" t="str">
@@ -3984,11 +3985,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M13" s="12">
-        <f t="shared" si="18"/>
+        <f>I13-F13</f>
         <v>2.5833333333139308E-2</v>
       </c>
       <c r="N13" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M13:$M13)</f>
         <v>37.199999999720603</v>
       </c>
       <c r="O13" s="13"/>
@@ -3996,27 +3997,27 @@
       <c r="Q13" s="62"/>
       <c r="R13" s="62"/>
       <c r="T13" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E13-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I13+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B13&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 04:54:35-0600',mode:absolute,to:'2016-05-20 05:38:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U13" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y13&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V13" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A13,3))-VALUE(LEFT(A12,3))</f>
         <v>1</v>
       </c>
       <c r="W13" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D13,LEN(D13)-4)/10000</f>
         <v>7.4300000000000005E-2</v>
       </c>
       <c r="X13" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H13,LEN(H13)-4)/10000</f>
         <v>23.330300000000001</v>
       </c>
       <c r="Y13" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X13-W13)</f>
         <v>23.256</v>
       </c>
       <c r="Z13" s="75" t="e">
@@ -4028,7 +4029,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>268</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B14),(B14-1)&amp;"/"&amp;B14,B14&amp;"/"&amp;(B14+1))</f>
         <v>4037/4038</v>
       </c>
       <c r="L14" s="61" t="str">
@@ -4068,11 +4069,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M14" s="12">
-        <f t="shared" si="18"/>
+        <f>I14-F14</f>
         <v>2.9270833329064772E-2</v>
       </c>
       <c r="N14" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M14:$M14)</f>
         <v>42.149999993853271</v>
       </c>
       <c r="O14" s="13"/>
@@ -4080,27 +4081,27 @@
       <c r="Q14" s="62"/>
       <c r="R14" s="62"/>
       <c r="T14" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E14-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I14+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B14&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 05:49:17-0600',mode:absolute,to:'2016-05-20 06:35:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U14" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y14&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V14" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A14,3))-VALUE(LEFT(A13,3))</f>
         <v>1</v>
       </c>
       <c r="W14" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D14,LEN(D14)-4)/10000</f>
         <v>23.297499999999999</v>
       </c>
       <c r="X14" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H14,LEN(H14)-4)/10000</f>
         <v>1.49E-2</v>
       </c>
       <c r="Y14" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X14-W14)</f>
         <v>23.282599999999999</v>
       </c>
       <c r="Z14" s="75" t="e">
@@ -4112,7 +4113,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
         <v>258</v>
       </c>
@@ -4144,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B15),(B15-1)&amp;"/"&amp;B15,B15&amp;"/"&amp;(B15+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L15" s="61" t="str">
@@ -4152,11 +4153,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M15" s="12">
-        <f t="shared" si="18"/>
+        <f>I15-F15</f>
         <v>3.5763888889050577E-2</v>
       </c>
       <c r="N15" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M15:$M15)</f>
         <v>51.500000000232831</v>
       </c>
       <c r="O15" s="13"/>
@@ -4164,27 +4165,27 @@
       <c r="Q15" s="62"/>
       <c r="R15" s="62"/>
       <c r="T15" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E15-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I15+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B15&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 04:59:51-0600',mode:absolute,to:'2016-05-20 05:55:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U15" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y15&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V15" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A15,3))-VALUE(LEFT(A14,3))</f>
         <v>1</v>
       </c>
       <c r="W15" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D15,LEN(D15)-4)/10000</f>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="X15" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H15,LEN(H15)-4)/10000</f>
         <v>23.332899999999999</v>
       </c>
       <c r="Y15" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X15-W15)</f>
         <v>23.288899999999998</v>
       </c>
       <c r="Z15" s="75" t="e">
@@ -4196,7 +4197,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:89" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61" t="s">
         <v>357</v>
       </c>
@@ -4228,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B16),(B16-1)&amp;"/"&amp;B16,B16&amp;"/"&amp;(B16+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L16" s="61" t="str">
@@ -4236,11 +4237,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M16" s="12">
-        <f t="shared" si="18"/>
+        <f>I16-F16</f>
         <v>2.8391203704813961E-2</v>
       </c>
       <c r="N16" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M16:$M16)</f>
         <v>40.883333334932104</v>
       </c>
       <c r="O16" s="13"/>
@@ -4248,27 +4249,27 @@
       <c r="Q16" s="62"/>
       <c r="R16" s="62"/>
       <c r="T16" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E16-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I16+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B16&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 06:04:14-0600',mode:absolute,to:'2016-05-20 06:48:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U16" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y16&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V16" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A16,3))-VALUE(LEFT(A15,3))</f>
         <v>1</v>
       </c>
       <c r="W16" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D16,LEN(D16)-4)/10000</f>
         <v>23.299800000000001</v>
       </c>
       <c r="X16" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H16,LEN(H16)-4)/10000</f>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y16" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X16-W16)</f>
         <v>23.284200000000002</v>
       </c>
       <c r="Z16" s="75" t="e">
@@ -4280,7 +4281,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>259</v>
       </c>
@@ -4312,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B17),(B17-1)&amp;"/"&amp;B17,B17&amp;"/"&amp;(B17+1))</f>
         <v>4029/4030</v>
       </c>
       <c r="L17" s="61" t="str">
@@ -4320,11 +4321,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M17" s="12">
-        <f t="shared" si="18"/>
+        <f>I17-F17</f>
         <v>2.4050925923802424E-2</v>
       </c>
       <c r="N17" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M17:$M17)</f>
         <v>34.633333330275491</v>
       </c>
       <c r="O17" s="13"/>
@@ -4332,27 +4333,27 @@
       <c r="Q17" s="62"/>
       <c r="R17" s="62"/>
       <c r="T17" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E17-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I17+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B17&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 05:27:37-0600',mode:absolute,to:'2016-05-20 06:07:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U17" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y17&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V17" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A17,3))-VALUE(LEFT(A16,3))</f>
         <v>1</v>
       </c>
       <c r="W17" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D17,LEN(D17)-4)/10000</f>
         <v>7.9200000000000007E-2</v>
       </c>
       <c r="X17" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H17,LEN(H17)-4)/10000</f>
         <v>23.301100000000002</v>
       </c>
       <c r="Y17" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X17-W17)</f>
         <v>23.221900000000002</v>
       </c>
       <c r="Z17" s="75">
@@ -4364,7 +4365,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>290</v>
       </c>
@@ -4396,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B18),(B18-1)&amp;"/"&amp;B18,B18&amp;"/"&amp;(B18+1))</f>
         <v>4029/4030</v>
       </c>
       <c r="L18" s="61" t="str">
@@ -4404,11 +4405,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M18" s="12">
-        <f t="shared" si="18"/>
+        <f>I18-F18</f>
         <v>2.8796296297514345E-2</v>
       </c>
       <c r="N18" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M18:$M18)</f>
         <v>41.466666668420658</v>
       </c>
       <c r="O18" s="13"/>
@@ -4416,27 +4417,27 @@
       <c r="Q18" s="62"/>
       <c r="R18" s="62"/>
       <c r="T18" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E18-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I18+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B18&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 06:18:27-0600',mode:absolute,to:'2016-05-20 07:03:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U18" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y18&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V18" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A18,3))-VALUE(LEFT(A17,3))</f>
         <v>1</v>
       </c>
       <c r="W18" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D18,LEN(D18)-4)/10000</f>
         <v>23.285900000000002</v>
       </c>
       <c r="X18" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H18,LEN(H18)-4)/10000</f>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y18" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X18-W18)</f>
         <v>23.269600000000001</v>
       </c>
       <c r="Z18" s="75" t="e">
@@ -4448,7 +4449,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
         <v>354</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B19),(B19-1)&amp;"/"&amp;B19,B19&amp;"/"&amp;(B19+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L19" s="61" t="str">
@@ -4488,11 +4489,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M19" s="12">
-        <f t="shared" si="18"/>
+        <f>I19-F19</f>
         <v>3.1435185184818693E-2</v>
       </c>
       <c r="N19" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M19:$M19)</f>
         <v>45.266666666138917</v>
       </c>
       <c r="O19" s="13"/>
@@ -4500,27 +4501,27 @@
       <c r="Q19" s="62"/>
       <c r="R19" s="62"/>
       <c r="T19" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E19-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I19+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B19&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 05:34:03-0600',mode:absolute,to:'2016-05-20 06:22:54-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U19" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y19&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V19" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A19,3))-VALUE(LEFT(A18,3))</f>
         <v>1</v>
       </c>
       <c r="W19" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D19,LEN(D19)-4)/10000</f>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X19" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H19,LEN(H19)-4)/10000</f>
         <v>23.328900000000001</v>
       </c>
       <c r="Y19" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X19-W19)</f>
         <v>23.284000000000002</v>
       </c>
       <c r="Z19" s="75" t="e">
@@ -4532,7 +4533,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
         <v>452</v>
       </c>
@@ -4564,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B20),(B20-1)&amp;"/"&amp;B20,B20&amp;"/"&amp;(B20+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L20" s="61" t="str">
@@ -4572,11 +4573,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M20" s="12">
-        <f t="shared" si="18"/>
+        <f>I20-F20</f>
         <v>2.9629629629198462E-2</v>
       </c>
       <c r="N20" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M20:$M20)</f>
         <v>42.666666666045785</v>
       </c>
       <c r="O20" s="13"/>
@@ -4584,27 +4585,27 @@
       <c r="Q20" s="62"/>
       <c r="R20" s="62"/>
       <c r="T20" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E20-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I20+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B20&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 06:33:27-0600',mode:absolute,to:'2016-05-20 07:19:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U20" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y20&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V20" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A20,3))-VALUE(LEFT(A19,3))</f>
         <v>1</v>
       </c>
       <c r="W20" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D20,LEN(D20)-4)/10000</f>
         <v>23.296399999999998</v>
       </c>
       <c r="X20" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H20,LEN(H20)-4)/10000</f>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y20" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X20-W20)</f>
         <v>23.280799999999999</v>
       </c>
       <c r="Z20" s="75" t="e">
@@ -4616,7 +4617,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>267</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B21),(B21-1)&amp;"/"&amp;B21,B21&amp;"/"&amp;(B21+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L21" s="61" t="str">
@@ -4656,11 +4657,11 @@
         <v>STORY</v>
       </c>
       <c r="M21" s="12">
-        <f t="shared" si="18"/>
+        <f>I21-F21</f>
         <v>2.396990740817273E-2</v>
       </c>
       <c r="N21" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M21:$M21)</f>
         <v>34.516666667768732</v>
       </c>
       <c r="O21" s="13"/>
@@ -4668,27 +4669,27 @@
       <c r="Q21" s="62"/>
       <c r="R21" s="62"/>
       <c r="T21" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E21-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I21+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B21&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 05:59:10-0600',mode:absolute,to:'2016-05-20 06:37:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U21" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y21&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V21" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A21,3))-VALUE(LEFT(A20,3))</f>
         <v>1</v>
       </c>
       <c r="W21" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D21,LEN(D21)-4)/10000</f>
         <v>0.14860000000000001</v>
       </c>
       <c r="X21" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H21,LEN(H21)-4)/10000</f>
         <v>23.328600000000002</v>
       </c>
       <c r="Y21" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X21-W21)</f>
         <v>23.180000000000003</v>
       </c>
       <c r="Z21" s="75" t="e">
@@ -4700,7 +4701,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
         <v>256</v>
       </c>
@@ -4732,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B22),(B22-1)&amp;"/"&amp;B22,B22&amp;"/"&amp;(B22+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L22" s="61" t="str">
@@ -4740,11 +4741,11 @@
         <v>STARKS</v>
       </c>
       <c r="M22" s="12">
-        <f t="shared" si="18"/>
+        <f>I22-F22</f>
         <v>2.8321759258687962E-2</v>
       </c>
       <c r="N22" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M22:$M22)</f>
         <v>40.783333332510665</v>
       </c>
       <c r="O22" s="13"/>
@@ -4752,27 +4753,27 @@
       <c r="Q22" s="62"/>
       <c r="R22" s="62"/>
       <c r="T22" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E22-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I22+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B22&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 06:07:50-0600',mode:absolute,to:'2016-05-20 06:52:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U22" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y22&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V22" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A22,3))-VALUE(LEFT(A21,3))</f>
         <v>2</v>
       </c>
       <c r="W22" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D22,LEN(D22)-4)/10000</f>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="X22" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H22,LEN(H22)-4)/10000</f>
         <v>23.334599999999998</v>
       </c>
       <c r="Y22" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X22-W22)</f>
         <v>23.287499999999998</v>
       </c>
       <c r="Z22" s="75" t="e">
@@ -4816,7 +4817,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B23),(B23-1)&amp;"/"&amp;B23,B23&amp;"/"&amp;(B23+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L23" s="61" t="str">
@@ -4824,13 +4825,13 @@
         <v>STARKS</v>
       </c>
       <c r="M23" s="12">
-        <f t="shared" si="18"/>
+        <f>I23-F23</f>
         <v>1.1458333392511122E-3</v>
       </c>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M23:$M23)</f>
         <v>1.6500000085216016</v>
       </c>
       <c r="Q23" s="62" t="s">
@@ -4840,27 +4841,27 @@
         <v>637</v>
       </c>
       <c r="T23" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E23-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I23+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B23&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 07:04:24-0600',mode:absolute,to:'2016-05-20 07:09:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U23" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y23&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V23" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A23,3))-VALUE(LEFT(A22,3))</f>
         <v>1</v>
       </c>
       <c r="W23" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D23,LEN(D23)-4)/10000</f>
         <v>23.302299999999999</v>
       </c>
       <c r="X23" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H23,LEN(H23)-4)/10000</f>
         <v>23.302099999999999</v>
       </c>
       <c r="Y23" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X23-W23)</f>
         <v>1.9999999999953388E-4</v>
       </c>
       <c r="Z23" s="75">
@@ -4872,7 +4873,7 @@
         <v>EQUIPMENT RESTRICTION</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
         <v>257</v>
       </c>
@@ -4904,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B24),(B24-1)&amp;"/"&amp;B24,B24&amp;"/"&amp;(B24+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L24" s="61" t="str">
@@ -4912,11 +4913,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M24" s="12">
-        <f t="shared" si="18"/>
+        <f>I24-F24</f>
         <v>2.8101851858082227E-2</v>
       </c>
       <c r="N24" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M24:$M24)</f>
         <v>40.466666675638407</v>
       </c>
       <c r="O24" s="13"/>
@@ -4924,27 +4925,27 @@
       <c r="Q24" s="62"/>
       <c r="R24" s="62"/>
       <c r="T24" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E24-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I24+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B24&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 06:22:36-0600',mode:absolute,to:'2016-05-20 07:06:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U24" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y24&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V24" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A24,3))-VALUE(LEFT(A23,3))</f>
         <v>1</v>
       </c>
       <c r="W24" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D24,LEN(D24)-4)/10000</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X24" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H24,LEN(H24)-4)/10000</f>
         <v>23.329499999999999</v>
       </c>
       <c r="Y24" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X24-W24)</f>
         <v>23.283999999999999</v>
       </c>
       <c r="Z24" s="75" t="e">
@@ -4956,7 +4957,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
         <v>382</v>
       </c>
@@ -4988,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B25),(B25-1)&amp;"/"&amp;B25,B25&amp;"/"&amp;(B25+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L25" s="61" t="str">
@@ -4996,11 +4997,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M25" s="12">
-        <f t="shared" si="18"/>
+        <f>I25-F25</f>
         <v>3.0983796299551614E-2</v>
       </c>
       <c r="N25" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M25:$M25)</f>
         <v>44.616666671354324</v>
       </c>
       <c r="O25" s="13"/>
@@ -5008,27 +5009,27 @@
       <c r="Q25" s="62"/>
       <c r="R25" s="62"/>
       <c r="T25" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E25-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I25+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B25&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 07:18:00-0600',mode:absolute,to:'2016-05-20 08:06:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U25" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y25&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V25" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A25,3))-VALUE(LEFT(A24,3))</f>
         <v>1</v>
       </c>
       <c r="W25" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D25,LEN(D25)-4)/10000</f>
         <v>23.297999999999998</v>
       </c>
       <c r="X25" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H25,LEN(H25)-4)/10000</f>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y25" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X25-W25)</f>
         <v>23.282399999999999</v>
       </c>
       <c r="Z25" s="75" t="e">
@@ -5040,7 +5041,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
         <v>435</v>
       </c>
@@ -5072,7 +5073,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B26),(B26-1)&amp;"/"&amp;B26,B26&amp;"/"&amp;(B26+1))</f>
         <v>4037/4038</v>
       </c>
       <c r="L26" s="61" t="str">
@@ -5080,11 +5081,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M26" s="12">
-        <f t="shared" si="18"/>
+        <f>I26-F26</f>
         <v>3.1134259261307307E-2</v>
       </c>
       <c r="N26" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M26:$M26)</f>
         <v>44.833333336282521</v>
       </c>
       <c r="O26" s="13"/>
@@ -5092,27 +5093,27 @@
       <c r="Q26" s="62"/>
       <c r="R26" s="62"/>
       <c r="T26" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E26-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I26+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B26&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 06:35:54-0600',mode:absolute,to:'2016-05-20 07:24:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U26" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y26&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V26" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A26,3))-VALUE(LEFT(A25,3))</f>
         <v>1</v>
       </c>
       <c r="W26" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D26,LEN(D26)-4)/10000</f>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="X26" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H26,LEN(H26)-4)/10000</f>
         <v>23.319099999999999</v>
       </c>
       <c r="Y26" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X26-W26)</f>
         <v>23.271599999999999</v>
       </c>
       <c r="Z26" s="75">
@@ -5124,7 +5125,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61" t="s">
         <v>455</v>
       </c>
@@ -5156,7 +5157,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B27),(B27-1)&amp;"/"&amp;B27,B27&amp;"/"&amp;(B27+1))</f>
         <v>4037/4038</v>
       </c>
       <c r="L27" s="61" t="str">
@@ -5164,11 +5165,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M27" s="12">
-        <f t="shared" si="18"/>
+        <f>I27-F27</f>
         <v>2.99421296294895E-2</v>
       </c>
       <c r="N27" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M27:$M27)</f>
         <v>43.11666666646488</v>
       </c>
       <c r="O27" s="13"/>
@@ -5176,27 +5177,27 @@
       <c r="Q27" s="62"/>
       <c r="R27" s="62"/>
       <c r="T27" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E27-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I27+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B27&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 07:35:20-0600',mode:absolute,to:'2016-05-20 08:22:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U27" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y27&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V27" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A27,3))-VALUE(LEFT(A26,3))</f>
         <v>1</v>
       </c>
       <c r="W27" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D27,LEN(D27)-4)/10000</f>
         <v>23.286799999999999</v>
       </c>
       <c r="X27" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H27,LEN(H27)-4)/10000</f>
         <v>1.61E-2</v>
       </c>
       <c r="Y27" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X27-W27)</f>
         <v>23.270699999999998</v>
       </c>
       <c r="Z27" s="75">
@@ -5208,7 +5209,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>523</v>
       </c>
@@ -5240,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B28),(B28-1)&amp;"/"&amp;B28,B28&amp;"/"&amp;(B28+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L28" s="61" t="str">
@@ -5248,11 +5249,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M28" s="12">
-        <f t="shared" si="18"/>
+        <f>I28-F28</f>
         <v>3.1423611115314998E-2</v>
       </c>
       <c r="N28" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M28:$M28)</f>
         <v>45.250000006053597</v>
       </c>
       <c r="O28" s="13"/>
@@ -5260,27 +5261,27 @@
       <c r="Q28" s="62"/>
       <c r="R28" s="62"/>
       <c r="T28" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E28-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I28+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B28&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 06:49:44-0600',mode:absolute,to:'2016-05-20 07:39:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U28" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y28&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V28" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A28,3))-VALUE(LEFT(A27,3))</f>
         <v>1</v>
       </c>
       <c r="W28" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D28,LEN(D28)-4)/10000</f>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="X28" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H28,LEN(H28)-4)/10000</f>
         <v>23.330100000000002</v>
       </c>
       <c r="Y28" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X28-W28)</f>
         <v>23.283200000000001</v>
       </c>
       <c r="Z28" s="75" t="e">
@@ -5292,7 +5293,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
         <v>546</v>
       </c>
@@ -5324,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B29),(B29-1)&amp;"/"&amp;B29,B29&amp;"/"&amp;(B29+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L29" s="61" t="str">
@@ -5332,11 +5333,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M29" s="12">
-        <f t="shared" si="18"/>
+        <f>I29-F29</f>
         <v>3.1620370369637385E-2</v>
       </c>
       <c r="N29" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M29:$M29)</f>
         <v>45.533333332277834</v>
       </c>
       <c r="O29" s="13"/>
@@ -5344,27 +5345,27 @@
       <c r="Q29" s="62"/>
       <c r="R29" s="62"/>
       <c r="T29" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E29-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I29+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B29&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 07:44:59-0600',mode:absolute,to:'2016-05-20 08:34:34-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U29" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y29&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V29" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A29,3))-VALUE(LEFT(A28,3))</f>
         <v>1</v>
       </c>
       <c r="W29" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D29,LEN(D29)-4)/10000</f>
         <v>23.296900000000001</v>
       </c>
       <c r="X29" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H29,LEN(H29)-4)/10000</f>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="Y29" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X29-W29)</f>
         <v>23.279900000000001</v>
       </c>
       <c r="Z29" s="75">
@@ -5376,7 +5377,7 @@
         <v>SIGNAL</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="61" t="s">
         <v>390</v>
       </c>
@@ -5408,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B30),(B30-1)&amp;"/"&amp;B30,B30&amp;"/"&amp;(B30+1))</f>
         <v>4029/4030</v>
       </c>
       <c r="L30" s="61" t="str">
@@ -5416,11 +5417,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M30" s="12">
-        <f t="shared" si="18"/>
+        <f>I30-F30</f>
         <v>3.0254629629780538E-2</v>
       </c>
       <c r="N30" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M30:$M30)</f>
         <v>43.566666666883975</v>
       </c>
       <c r="O30" s="13"/>
@@ -5428,27 +5429,27 @@
       <c r="Q30" s="62"/>
       <c r="R30" s="62"/>
       <c r="T30" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E30-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I30+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B30&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 07:11:24-0600',mode:absolute,to:'2016-05-20 07:58:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U30" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y30&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V30" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A30,3))-VALUE(LEFT(A29,3))</f>
         <v>1</v>
       </c>
       <c r="W30" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D30,LEN(D30)-4)/10000</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X30" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H30,LEN(H30)-4)/10000</f>
         <v>23.3291</v>
       </c>
       <c r="Y30" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X30-W30)</f>
         <v>23.282499999999999</v>
       </c>
       <c r="Z30" s="75" t="e">
@@ -5460,7 +5461,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>536</v>
       </c>
@@ -5492,7 +5493,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B31),(B31-1)&amp;"/"&amp;B31,B31&amp;"/"&amp;(B31+1))</f>
         <v>4029/4030</v>
       </c>
       <c r="L31" s="61" t="str">
@@ -5500,11 +5501,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M31" s="12">
-        <f t="shared" si="18"/>
+        <f>I31-F31</f>
         <v>2.8564814812853001E-2</v>
       </c>
       <c r="N31" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M31:$M31)</f>
         <v>41.133333330508322</v>
       </c>
       <c r="O31" s="13"/>
@@ -5512,27 +5513,27 @@
       <c r="Q31" s="62"/>
       <c r="R31" s="62"/>
       <c r="T31" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E31-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I31+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B31&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 08:04:28-0600',mode:absolute,to:'2016-05-20 08:49:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U31" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y31&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V31" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A31,3))-VALUE(LEFT(A30,3))</f>
         <v>1</v>
       </c>
       <c r="W31" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D31,LEN(D31)-4)/10000</f>
         <v>23.2974</v>
       </c>
       <c r="X31" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H31,LEN(H31)-4)/10000</f>
         <v>2.76E-2</v>
       </c>
       <c r="Y31" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X31-W31)</f>
         <v>23.2698</v>
       </c>
       <c r="Z31" s="75">
@@ -5544,7 +5545,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>466</v>
       </c>
@@ -5576,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B32),(B32-1)&amp;"/"&amp;B32,B32&amp;"/"&amp;(B32+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L32" s="61" t="str">
@@ -5584,11 +5585,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M32" s="12">
-        <f t="shared" si="18"/>
+        <f>I32-F32</f>
         <v>2.8229166666278616E-2</v>
       </c>
       <c r="N32" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M32:$M32)</f>
         <v>40.649999999441206</v>
       </c>
       <c r="O32" s="13"/>
@@ -5596,27 +5597,27 @@
       <c r="Q32" s="62"/>
       <c r="R32" s="62"/>
       <c r="T32" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E32-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I32+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B32&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 07:22:38-0600',mode:absolute,to:'2016-05-20 08:06:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U32" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y32&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V32" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A32,3))-VALUE(LEFT(A31,3))</f>
         <v>1</v>
       </c>
       <c r="W32" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D32,LEN(D32)-4)/10000</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X32" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H32,LEN(H32)-4)/10000</f>
         <v>23.329499999999999</v>
       </c>
       <c r="Y32" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X32-W32)</f>
         <v>23.283300000000001</v>
       </c>
       <c r="Z32" s="75" t="e">
@@ -5628,7 +5629,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
         <v>451</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B33),(B33-1)&amp;"/"&amp;B33,B33&amp;"/"&amp;(B33+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L33" s="61" t="str">
@@ -5668,11 +5669,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M33" s="12">
-        <f t="shared" si="18"/>
+        <f>I33-F33</f>
         <v>3.3599537040572613E-2</v>
       </c>
       <c r="N33" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M33:$M33)</f>
         <v>48.383333338424563</v>
       </c>
       <c r="O33" s="13"/>
@@ -5680,27 +5681,27 @@
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
       <c r="T33" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E33-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I33+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B33&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 08:12:38-0600',mode:absolute,to:'2016-05-20 09:04:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U33" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y33&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V33" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A33,3))-VALUE(LEFT(A32,3))</f>
         <v>1</v>
       </c>
       <c r="W33" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D33,LEN(D33)-4)/10000</f>
         <v>23.296900000000001</v>
       </c>
       <c r="X33" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H33,LEN(H33)-4)/10000</f>
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="Y33" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X33-W33)</f>
         <v>23.2804</v>
       </c>
       <c r="Z33" s="75" t="e">
@@ -5712,7 +5713,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>453</v>
       </c>
@@ -5744,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B34),(B34-1)&amp;"/"&amp;B34,B34&amp;"/"&amp;(B34+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L34" s="61" t="str">
@@ -5752,11 +5753,11 @@
         <v>STORY</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" si="18"/>
+        <f>I34-F34</f>
         <v>2.8692129628325347E-2</v>
       </c>
       <c r="N34" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M34:$M34)</f>
         <v>41.316666664788499</v>
       </c>
       <c r="O34" s="13"/>
@@ -5764,27 +5765,27 @@
       <c r="Q34" s="62"/>
       <c r="R34" s="62"/>
       <c r="T34" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E34-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I34+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B34&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 07:39:44-0600',mode:absolute,to:'2016-05-20 08:24:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U34" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y34&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V34" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A34,3))-VALUE(LEFT(A33,3))</f>
         <v>1</v>
       </c>
       <c r="W34" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D34,LEN(D34)-4)/10000</f>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="X34" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H34,LEN(H34)-4)/10000</f>
         <v>23.331700000000001</v>
       </c>
       <c r="Y34" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X34-W34)</f>
         <v>23.287700000000001</v>
       </c>
       <c r="Z34" s="75" t="e">
@@ -5796,7 +5797,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>516</v>
       </c>
@@ -5828,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B35),(B35-1)&amp;"/"&amp;B35,B35&amp;"/"&amp;(B35+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L35" s="61" t="str">
@@ -5836,11 +5837,11 @@
         <v>STARKS</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" si="18"/>
+        <f>I35-F35</f>
         <v>2.6944444442051463E-2</v>
       </c>
       <c r="N35" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M35:$M35)</f>
         <v>38.799999996554106</v>
       </c>
       <c r="O35" s="13"/>
@@ -5848,27 +5849,27 @@
       <c r="Q35" s="62"/>
       <c r="R35" s="62"/>
       <c r="T35" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E35-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I35+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B35&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 07:55:52-0600',mode:absolute,to:'2016-05-20 08:37:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U35" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y35&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V35" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A35,3))-VALUE(LEFT(A34,3))</f>
         <v>2</v>
       </c>
       <c r="W35" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D35,LEN(D35)-4)/10000</f>
         <v>4.53E-2</v>
       </c>
       <c r="X35" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H35,LEN(H35)-4)/10000</f>
         <v>23.3355</v>
       </c>
       <c r="Y35" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X35-W35)</f>
         <v>23.290199999999999</v>
       </c>
       <c r="Z35" s="75" t="e">
@@ -5880,7 +5881,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
         <v>391</v>
       </c>
@@ -5912,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B36),(B36-1)&amp;"/"&amp;B36,B36&amp;"/"&amp;(B36+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L36" s="61" t="str">
@@ -5920,11 +5921,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M36" s="12">
-        <f t="shared" si="18"/>
+        <f>I36-F36</f>
         <v>3.2789351847895887E-2</v>
       </c>
       <c r="N36" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M36:$M36)</f>
         <v>47.216666660970077</v>
       </c>
       <c r="O36" s="13"/>
@@ -5932,27 +5933,27 @@
       <c r="Q36" s="62"/>
       <c r="R36" s="62"/>
       <c r="T36" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E36-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I36+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B36&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 08:07:02-0600',mode:absolute,to:'2016-05-20 08:57:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U36" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y36&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V36" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A36,3))-VALUE(LEFT(A35,3))</f>
         <v>2</v>
       </c>
       <c r="W36" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D36,LEN(D36)-4)/10000</f>
         <v>4.58E-2</v>
       </c>
       <c r="X36" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H36,LEN(H36)-4)/10000</f>
         <v>23.33</v>
       </c>
       <c r="Y36" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X36-W36)</f>
         <v>23.284199999999998</v>
       </c>
       <c r="Z36" s="75" t="e">
@@ -5964,7 +5965,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
         <v>383</v>
       </c>
@@ -5996,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B37),(B37-1)&amp;"/"&amp;B37,B37&amp;"/"&amp;(B37+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L37" s="61" t="str">
@@ -6004,11 +6005,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M37" s="12">
-        <f t="shared" si="18"/>
+        <f>I37-F37</f>
         <v>3.1782407400896773E-2</v>
       </c>
       <c r="N37" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M37:$M37)</f>
         <v>45.766666657291353</v>
       </c>
       <c r="O37" s="13"/>
@@ -6016,27 +6017,27 @@
       <c r="Q37" s="62"/>
       <c r="R37" s="62"/>
       <c r="T37" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E37-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I37+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B37&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 09:04:13-0600',mode:absolute,to:'2016-05-20 09:53:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U37" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y37&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V37" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A37,3))-VALUE(LEFT(A36,3))</f>
         <v>1</v>
       </c>
       <c r="W37" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D37,LEN(D37)-4)/10000</f>
         <v>23.299399999999999</v>
       </c>
       <c r="X37" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H37,LEN(H37)-4)/10000</f>
         <v>1.52E-2</v>
       </c>
       <c r="Y37" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X37-W37)</f>
         <v>23.284199999999998</v>
       </c>
       <c r="Z37" s="75" t="e">
@@ -6048,7 +6049,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>456</v>
       </c>
@@ -6080,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B38),(B38-1)&amp;"/"&amp;B38,B38&amp;"/"&amp;(B38+1))</f>
         <v>4037/4038</v>
       </c>
       <c r="L38" s="61" t="str">
@@ -6088,11 +6089,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M38" s="12">
-        <f t="shared" si="18"/>
+        <f>I38-F38</f>
         <v>3.1666666669480037E-2</v>
       </c>
       <c r="N38" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M38:$M38)</f>
         <v>45.600000004051253</v>
       </c>
       <c r="O38" s="13"/>
@@ -6100,27 +6101,27 @@
       <c r="Q38" s="62"/>
       <c r="R38" s="62"/>
       <c r="T38" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E38-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I38+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B38&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 08:23:30-0600',mode:absolute,to:'2016-05-20 09:12:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U38" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y38&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V38" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A38,3))-VALUE(LEFT(A37,3))</f>
         <v>1</v>
       </c>
       <c r="W38" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D38,LEN(D38)-4)/10000</f>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="X38" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H38,LEN(H38)-4)/10000</f>
         <v>23.3307</v>
       </c>
       <c r="Y38" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X38-W38)</f>
         <v>23.2834</v>
       </c>
       <c r="Z38" s="75">
@@ -6132,7 +6133,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>532</v>
       </c>
@@ -6164,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B39),(B39-1)&amp;"/"&amp;B39,B39&amp;"/"&amp;(B39+1))</f>
         <v>4037/4038</v>
       </c>
       <c r="L39" s="61" t="str">
@@ -6172,11 +6173,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M39" s="12">
-        <f t="shared" si="18"/>
+        <f>I39-F39</f>
         <v>2.976851852145046E-2</v>
       </c>
       <c r="N39" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M39:$M39)</f>
         <v>42.866666670888662</v>
       </c>
       <c r="O39" s="13"/>
@@ -6184,27 +6185,27 @@
       <c r="Q39" s="62"/>
       <c r="R39" s="62"/>
       <c r="T39" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E39-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I39+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B39&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 09:18:46-0600',mode:absolute,to:'2016-05-20 10:05:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U39" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y39&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V39" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A39,3))-VALUE(LEFT(A38,3))</f>
         <v>1</v>
       </c>
       <c r="W39" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D39,LEN(D39)-4)/10000</f>
         <v>23.297699999999999</v>
       </c>
       <c r="X39" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H39,LEN(H39)-4)/10000</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y39" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X39-W39)</f>
         <v>23.282699999999998</v>
       </c>
       <c r="Z39" s="75" t="e">
@@ -6216,7 +6217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
         <v>457</v>
       </c>
@@ -6248,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B40),(B40-1)&amp;"/"&amp;B40,B40&amp;"/"&amp;(B40+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L40" s="61" t="str">
@@ -6256,11 +6257,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M40" s="12">
-        <f t="shared" si="18"/>
+        <f>I40-F40</f>
         <v>2.9999999998835847E-2</v>
       </c>
       <c r="N40" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M40:$M40)</f>
         <v>43.199999998323619</v>
       </c>
       <c r="O40" s="13"/>
@@ -6268,27 +6269,27 @@
       <c r="Q40" s="62"/>
       <c r="R40" s="62"/>
       <c r="T40" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E40-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I40+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B40&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 08:38:59-0600',mode:absolute,to:'2016-05-20 09:26:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U40" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y40&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V40" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A40,3))-VALUE(LEFT(A39,3))</f>
         <v>1</v>
       </c>
       <c r="W40" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D40,LEN(D40)-4)/10000</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X40" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H40,LEN(H40)-4)/10000</f>
         <v>23.331499999999998</v>
       </c>
       <c r="Y40" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X40-W40)</f>
         <v>23.285999999999998</v>
       </c>
       <c r="Z40" s="75" t="e">
@@ -6300,7 +6301,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
         <v>518</v>
       </c>
@@ -6332,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B41),(B41-1)&amp;"/"&amp;B41,B41&amp;"/"&amp;(B41+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L41" s="61" t="str">
@@ -6340,11 +6341,11 @@
         <v>LEDERHAUSE</v>
       </c>
       <c r="M41" s="12">
-        <f t="shared" si="18"/>
+        <f>I41-F41</f>
         <v>3.0624999999417923E-2</v>
       </c>
       <c r="N41" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M41:$M41)</f>
         <v>44.09999999916181</v>
       </c>
       <c r="O41" s="13"/>
@@ -6352,27 +6353,27 @@
       <c r="Q41" s="62"/>
       <c r="R41" s="62"/>
       <c r="T41" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E41-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I41+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B41&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 09:31:45-0600',mode:absolute,to:'2016-05-20 10:19:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U41" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y41&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V41" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A41,3))-VALUE(LEFT(A40,3))</f>
         <v>1</v>
       </c>
       <c r="W41" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D41,LEN(D41)-4)/10000</f>
         <v>23.2989</v>
       </c>
       <c r="X41" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H41,LEN(H41)-4)/10000</f>
         <v>1.54E-2</v>
       </c>
       <c r="Y41" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X41-W41)</f>
         <v>23.2835</v>
       </c>
       <c r="Z41" s="75" t="e">
@@ -6384,7 +6385,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="61" t="s">
         <v>447</v>
       </c>
@@ -6416,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B42),(B42-1)&amp;"/"&amp;B42,B42&amp;"/"&amp;(B42+1))</f>
         <v>4029/4030</v>
       </c>
       <c r="L42" s="61" t="str">
@@ -6424,11 +6425,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M42" s="12">
-        <f t="shared" si="18"/>
+        <f>I42-F42</f>
         <v>2.6851851856918074E-2</v>
       </c>
       <c r="N42" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M42:$M42)</f>
         <v>38.666666673962027</v>
       </c>
       <c r="O42" s="13"/>
@@ -6436,27 +6437,27 @@
       <c r="Q42" s="62"/>
       <c r="R42" s="62"/>
       <c r="T42" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E42-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I42+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B42&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 08:55:05-0600',mode:absolute,to:'2016-05-20 09:37:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U42" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y42&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V42" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A42,3))-VALUE(LEFT(A41,3))</f>
         <v>1</v>
       </c>
       <c r="W42" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D42,LEN(D42)-4)/10000</f>
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="X42" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H42,LEN(H42)-4)/10000</f>
         <v>23.327999999999999</v>
       </c>
       <c r="Y42" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X42-W42)</f>
         <v>23.270499999999998</v>
       </c>
       <c r="Z42" s="75" t="e">
@@ -6468,7 +6469,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61" t="s">
         <v>535</v>
       </c>
@@ -6500,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B43),(B43-1)&amp;"/"&amp;B43,B43&amp;"/"&amp;(B43+1))</f>
         <v>4029/4030</v>
       </c>
       <c r="L43" s="61" t="str">
@@ -6508,11 +6509,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M43" s="12">
-        <f t="shared" si="18"/>
+        <f>I43-F43</f>
         <v>2.8506944443506654E-2</v>
       </c>
       <c r="N43" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M43:$M43)</f>
         <v>41.049999998649582</v>
       </c>
       <c r="O43" s="13"/>
@@ -6520,27 +6521,27 @@
       <c r="Q43" s="62"/>
       <c r="R43" s="62"/>
       <c r="T43" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E43-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I43+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B43&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 09:49:16-0600',mode:absolute,to:'2016-05-20 10:34:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U43" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y43&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V43" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A43,3))-VALUE(LEFT(A42,3))</f>
         <v>1</v>
       </c>
       <c r="W43" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D43,LEN(D43)-4)/10000</f>
         <v>23.297799999999999</v>
       </c>
       <c r="X43" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H43,LEN(H43)-4)/10000</f>
         <v>1.52E-2</v>
       </c>
       <c r="Y43" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X43-W43)</f>
         <v>23.282599999999999</v>
       </c>
       <c r="Z43" s="75" t="e">
@@ -6552,7 +6553,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
         <v>467</v>
       </c>
@@ -6584,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B44),(B44-1)&amp;"/"&amp;B44,B44&amp;"/"&amp;(B44+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L44" s="61" t="str">
@@ -6592,11 +6593,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M44" s="12">
-        <f t="shared" si="18"/>
+        <f>I44-F44</f>
         <v>3.1435185184818693E-2</v>
       </c>
       <c r="N44" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M44:$M44)</f>
         <v>45.266666666138917</v>
       </c>
       <c r="O44" s="13"/>
@@ -6604,27 +6605,27 @@
       <c r="Q44" s="62"/>
       <c r="R44" s="62"/>
       <c r="T44" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E44-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I44+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B44&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 09:04:04-0600',mode:absolute,to:'2016-05-20 09:52:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U44" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y44&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V44" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A44,3))-VALUE(LEFT(A43,3))</f>
         <v>1</v>
       </c>
       <c r="W44" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D44,LEN(D44)-4)/10000</f>
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="X44" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H44,LEN(H44)-4)/10000</f>
         <v>23.328700000000001</v>
       </c>
       <c r="Y44" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X44-W44)</f>
         <v>23.2803</v>
       </c>
       <c r="Z44" s="75" t="e">
@@ -6636,7 +6637,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
         <v>450</v>
       </c>
@@ -6668,7 +6669,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B45),(B45-1)&amp;"/"&amp;B45,B45&amp;"/"&amp;(B45+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L45" s="61" t="str">
@@ -6676,11 +6677,11 @@
         <v>STURGEON</v>
       </c>
       <c r="M45" s="12">
-        <f t="shared" si="18"/>
+        <f>I45-F45</f>
         <v>3.3472222225100268E-2</v>
       </c>
       <c r="N45" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M45:$M45)</f>
         <v>48.200000004144385</v>
       </c>
       <c r="O45" s="13"/>
@@ -6688,27 +6689,27 @@
       <c r="Q45" s="62"/>
       <c r="R45" s="62"/>
       <c r="T45" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E45-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I45+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B45&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 09:57:51-0600',mode:absolute,to:'2016-05-20 10:49:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U45" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y45&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V45" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A45,3))-VALUE(LEFT(A44,3))</f>
         <v>1</v>
       </c>
       <c r="W45" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D45,LEN(D45)-4)/10000</f>
         <v>23.297899999999998</v>
       </c>
       <c r="X45" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H45,LEN(H45)-4)/10000</f>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="Y45" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X45-W45)</f>
         <v>23.280899999999999</v>
       </c>
       <c r="Z45" s="75">
@@ -6720,7 +6721,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
         <v>521</v>
       </c>
@@ -6752,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B46),(B46-1)&amp;"/"&amp;B46,B46&amp;"/"&amp;(B46+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L46" s="61" t="str">
@@ -6760,11 +6761,11 @@
         <v>STORY</v>
       </c>
       <c r="M46" s="12">
-        <f t="shared" si="18"/>
+        <f>I46-F46</f>
         <v>3.1967592592991423E-2</v>
       </c>
       <c r="N46" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M46:$M46)</f>
         <v>46.033333333907649</v>
       </c>
       <c r="O46" s="13"/>
@@ -6772,27 +6773,27 @@
       <c r="Q46" s="62"/>
       <c r="R46" s="62"/>
       <c r="T46" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E46-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I46+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B46&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 10:13:37-0600',mode:absolute,to:'2016-05-20 11:03:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U46" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y46&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V46" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A46,3))-VALUE(LEFT(A45,3))</f>
         <v>2</v>
       </c>
       <c r="W46" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D46,LEN(D46)-4)/10000</f>
         <v>23.2986</v>
       </c>
       <c r="X46" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H46,LEN(H46)-4)/10000</f>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y46" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X46-W46)</f>
         <v>23.282800000000002</v>
       </c>
       <c r="Z46" s="75" t="e">
@@ -6804,7 +6805,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="61" t="s">
         <v>446</v>
       </c>
@@ -6836,7 +6837,7 @@
         <v>4</v>
       </c>
       <c r="K47" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B47),(B47-1)&amp;"/"&amp;B47,B47&amp;"/"&amp;(B47+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L47" s="61" t="str">
@@ -6844,11 +6845,11 @@
         <v>STARKS</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" si="18"/>
+        <f>I47-F47</f>
         <v>2.8391203704813961E-2</v>
       </c>
       <c r="N47" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M47:$M47)</f>
         <v>40.883333334932104</v>
       </c>
       <c r="O47" s="13"/>
@@ -6856,26 +6857,26 @@
       <c r="Q47" s="62"/>
       <c r="R47" s="62"/>
       <c r="T47" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E47-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I47+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B47&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 09:37:58-0600',mode:absolute,to:'2016-05-20 10:21:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U47" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y47&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V47" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A47,3))-VALUE(LEFT(A46,3))</f>
         <v>1</v>
       </c>
       <c r="W47" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D47,LEN(D47)-4)/10000</f>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X47" s="74">
         <v>23.334900000000001</v>
       </c>
       <c r="Y47" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X47-W47)</f>
         <v>23.289200000000001</v>
       </c>
       <c r="Z47" s="75">
@@ -6887,7 +6888,7 @@
         <v>GRADE CROSSING</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
         <v>384</v>
       </c>
@@ -6919,7 +6920,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B48),(B48-1)&amp;"/"&amp;B48,B48&amp;"/"&amp;(B48+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L48" s="61" t="str">
@@ -6927,11 +6928,11 @@
         <v>STARKS</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" si="18"/>
+        <f>I48-F48</f>
         <v>2.9432870367600117E-2</v>
       </c>
       <c r="N48" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M48:$M48)</f>
         <v>42.383333329344168</v>
       </c>
       <c r="O48" s="13"/>
@@ -6939,27 +6940,27 @@
       <c r="Q48" s="62"/>
       <c r="R48" s="62"/>
       <c r="T48" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E48-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I48+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B48&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 10:33:54-0600',mode:absolute,to:'2016-05-20 11:19:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U48" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y48&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V48" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A48,3))-VALUE(LEFT(A47,3))</f>
         <v>1</v>
       </c>
       <c r="W48" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D48,LEN(D48)-4)/10000</f>
         <v>23.304500000000001</v>
       </c>
       <c r="X48" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H48,LEN(H48)-4)/10000</f>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y48" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X48-W48)</f>
         <v>23.29</v>
       </c>
       <c r="Z48" s="75">
@@ -6971,7 +6972,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
         <v>522</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B49),(B49-1)&amp;"/"&amp;B49,B49&amp;"/"&amp;(B49+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L49" s="61" t="str">
@@ -7011,11 +7012,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M49" s="12">
-        <f t="shared" si="18"/>
+        <f>I49-F49</f>
         <v>2.8310185181908309E-2</v>
       </c>
       <c r="N49" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M49:$M49)</f>
         <v>40.766666661947966</v>
       </c>
       <c r="O49" s="13"/>
@@ -7023,27 +7024,27 @@
       <c r="Q49" s="62"/>
       <c r="R49" s="62"/>
       <c r="T49" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E49-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I49+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B49&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 09:53:17-0600',mode:absolute,to:'2016-05-20 10:37:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U49" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y49&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V49" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A49,3))-VALUE(LEFT(A48,3))</f>
         <v>1</v>
       </c>
       <c r="W49" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D49,LEN(D49)-4)/10000</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X49" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H49,LEN(H49)-4)/10000</f>
         <v>23.3293</v>
       </c>
       <c r="Y49" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X49-W49)</f>
         <v>23.283300000000001</v>
       </c>
       <c r="Z49" s="75" t="e">
@@ -7055,7 +7056,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
         <v>500</v>
       </c>
@@ -7087,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B50),(B50-1)&amp;"/"&amp;B50,B50&amp;"/"&amp;(B50+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L50" s="61" t="str">
@@ -7095,11 +7096,11 @@
         <v>REBOLETTI</v>
       </c>
       <c r="M50" s="12">
-        <f t="shared" si="18"/>
+        <f>I50-F50</f>
         <v>3.3541666663950309E-2</v>
       </c>
       <c r="N50" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M50:$M50)</f>
         <v>48.299999996088445</v>
       </c>
       <c r="O50" s="13"/>
@@ -7107,27 +7108,27 @@
       <c r="Q50" s="62"/>
       <c r="R50" s="62"/>
       <c r="T50" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E50-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I50+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B50&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 10:42:50-0600',mode:absolute,to:'2016-05-20 11:34:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U50" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y50&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V50" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A50,3))-VALUE(LEFT(A49,3))</f>
         <v>1</v>
       </c>
       <c r="W50" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D50,LEN(D50)-4)/10000</f>
         <v>23.296900000000001</v>
       </c>
       <c r="X50" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H50,LEN(H50)-4)/10000</f>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y50" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X50-W50)</f>
         <v>23.281100000000002</v>
       </c>
       <c r="Z50" s="75" t="e">
@@ -7139,7 +7140,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="61" t="s">
         <v>449</v>
       </c>
@@ -7171,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B51),(B51-1)&amp;"/"&amp;B51,B51&amp;"/"&amp;(B51+1))</f>
         <v>4037/4038</v>
       </c>
       <c r="L51" s="61" t="str">
@@ -7179,11 +7180,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M51" s="12">
-        <f t="shared" si="18"/>
+        <f>I51-F51</f>
         <v>2.8182870366435964E-2</v>
       </c>
       <c r="N51" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M51:$M51)</f>
         <v>40.583333327667788</v>
       </c>
       <c r="O51" s="13"/>
@@ -7191,27 +7192,27 @@
       <c r="Q51" s="62"/>
       <c r="R51" s="62"/>
       <c r="T51" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E51-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I51+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B51&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 10:07:49-0600',mode:absolute,to:'2016-05-20 10:53:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U51" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y51&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V51" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A51,3))-VALUE(LEFT(A50,3))</f>
         <v>1</v>
       </c>
       <c r="W51" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D51,LEN(D51)-4)/10000</f>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="X51" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H51,LEN(H51)-4)/10000</f>
         <v>23.331399999999999</v>
       </c>
       <c r="Y51" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X51-W51)</f>
         <v>23.284699999999997</v>
       </c>
       <c r="Z51" s="75" t="e">
@@ -7223,7 +7224,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="61" t="s">
         <v>527</v>
       </c>
@@ -7255,7 +7256,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B52),(B52-1)&amp;"/"&amp;B52,B52&amp;"/"&amp;(B52+1))</f>
         <v>4037/4038</v>
       </c>
       <c r="L52" s="61" t="str">
@@ -7263,11 +7264,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" si="18"/>
+        <f>I52-F52</f>
         <v>3.1041666661622003E-2</v>
       </c>
       <c r="N52" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M52:$M52)</f>
         <v>44.699999992735684</v>
       </c>
       <c r="O52" s="13"/>
@@ -7275,27 +7276,27 @@
       <c r="Q52" s="62"/>
       <c r="R52" s="62"/>
       <c r="T52" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E52-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I52+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B52&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 10:58:25-0600',mode:absolute,to:'2016-05-20 11:49:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U52" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y52&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V52" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A52,3))-VALUE(LEFT(A51,3))</f>
         <v>1</v>
       </c>
       <c r="W52" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D52,LEN(D52)-4)/10000</f>
         <v>23.298100000000002</v>
       </c>
       <c r="X52" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H52,LEN(H52)-4)/10000</f>
         <v>1.9400000000000001E-2</v>
       </c>
       <c r="Y52" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X52-W52)</f>
         <v>23.278700000000001</v>
       </c>
       <c r="Z52" s="75">
@@ -7307,7 +7308,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="53" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="61" t="s">
         <v>524</v>
       </c>
@@ -7339,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B53),(B53-1)&amp;"/"&amp;B53,B53&amp;"/"&amp;(B53+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L53" s="61" t="str">
@@ -7347,11 +7348,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="18"/>
+        <f>I53-F53</f>
         <v>2.9247685182781424E-2</v>
       </c>
       <c r="N53" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M53:$M53)</f>
         <v>42.116666663205251</v>
       </c>
       <c r="O53" s="13"/>
@@ -7359,27 +7360,27 @@
       <c r="Q53" s="62"/>
       <c r="R53" s="62"/>
       <c r="T53" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E53-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I53+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B53&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 10:21:06-0600',mode:absolute,to:'2016-05-20 11:07:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U53" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y53&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V53" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A53,3))-VALUE(LEFT(A52,3))</f>
         <v>1</v>
       </c>
       <c r="W53" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D53,LEN(D53)-4)/10000</f>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="X53" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H53,LEN(H53)-4)/10000</f>
         <v>23.329899999999999</v>
       </c>
       <c r="Y53" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X53-W53)</f>
         <v>23.282399999999999</v>
       </c>
       <c r="Z53" s="75" t="e">
@@ -7391,7 +7392,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="s">
         <v>495</v>
       </c>
@@ -7423,7 +7424,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B54),(B54-1)&amp;"/"&amp;B54,B54&amp;"/"&amp;(B54+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L54" s="61" t="str">
@@ -7431,11 +7432,11 @@
         <v>STRICKLAND</v>
       </c>
       <c r="M54" s="12">
-        <f t="shared" si="18"/>
+        <f>I54-F54</f>
         <v>3.178240740817273E-2</v>
       </c>
       <c r="N54" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M54:$M54)</f>
         <v>45.766666667768732</v>
       </c>
       <c r="O54" s="13"/>
@@ -7443,27 +7444,27 @@
       <c r="Q54" s="62"/>
       <c r="R54" s="62"/>
       <c r="T54" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E54-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I54+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B54&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 11:18:26-0600',mode:absolute,to:'2016-05-20 12:08:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U54" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y54&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V54" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A54,3))-VALUE(LEFT(A53,3))</f>
         <v>1</v>
       </c>
       <c r="W54" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D54,LEN(D54)-4)/10000</f>
         <v>23.296500000000002</v>
       </c>
       <c r="X54" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H54,LEN(H54)-4)/10000</f>
         <v>1.38E-2</v>
       </c>
       <c r="Y54" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X54-W54)</f>
         <v>23.282700000000002</v>
       </c>
       <c r="Z54" s="75">
@@ -7475,7 +7476,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="55" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="61" t="s">
         <v>525</v>
       </c>
@@ -7507,7 +7508,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B55),(B55-1)&amp;"/"&amp;B55,B55&amp;"/"&amp;(B55+1))</f>
         <v>4029/4030</v>
       </c>
       <c r="L55" s="61" t="str">
@@ -7515,11 +7516,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="18"/>
+        <f>I55-F55</f>
         <v>2.6504629626288079E-2</v>
       </c>
       <c r="N55" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M55:$M55)</f>
         <v>38.166666661854833</v>
       </c>
       <c r="O55" s="13"/>
@@ -7527,27 +7528,27 @@
       <c r="Q55" s="62"/>
       <c r="R55" s="62"/>
       <c r="T55" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E55-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I55+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B55&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 10:39:29-0600',mode:absolute,to:'2016-05-20 11:21:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U55" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y55&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V55" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A55,3))-VALUE(LEFT(A54,3))</f>
         <v>1</v>
       </c>
       <c r="W55" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D55,LEN(D55)-4)/10000</f>
         <v>4.58E-2</v>
       </c>
       <c r="X55" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H55,LEN(H55)-4)/10000</f>
         <v>23.127099999999999</v>
       </c>
       <c r="Y55" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X55-W55)</f>
         <v>23.081299999999999</v>
       </c>
       <c r="Z55" s="75">
@@ -7559,7 +7560,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="56" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="61" t="s">
         <v>458</v>
       </c>
@@ -7591,7 +7592,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B56),(B56-1)&amp;"/"&amp;B56,B56&amp;"/"&amp;(B56+1))</f>
         <v>4029/4030</v>
       </c>
       <c r="L56" s="61" t="str">
@@ -7599,11 +7600,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M56" s="12">
-        <f t="shared" si="18"/>
+        <f>I56-F56</f>
         <v>3.3715277779265307E-2</v>
       </c>
       <c r="N56" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M56:$M56)</f>
         <v>48.550000002142042</v>
       </c>
       <c r="O56" s="13"/>
@@ -7611,27 +7612,27 @@
       <c r="Q56" s="62"/>
       <c r="R56" s="62"/>
       <c r="T56" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E56-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I56+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B56&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 11:36:36-0600',mode:absolute,to:'2016-05-20 12:28:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U56" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y56&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V56" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A56,3))-VALUE(LEFT(A55,3))</f>
         <v>1</v>
       </c>
       <c r="W56" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D56,LEN(D56)-4)/10000</f>
         <v>23.299099999999999</v>
       </c>
       <c r="X56" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H56,LEN(H56)-4)/10000</f>
         <v>8.9800000000000005E-2</v>
       </c>
       <c r="Y56" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X56-W56)</f>
         <v>23.209299999999999</v>
       </c>
       <c r="Z56" s="75">
@@ -7643,7 +7644,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="57" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="61" t="s">
         <v>520</v>
       </c>
@@ -7675,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B57),(B57-1)&amp;"/"&amp;B57,B57&amp;"/"&amp;(B57+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L57" s="61" t="str">
@@ -7683,11 +7684,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M57" s="12">
-        <f t="shared" si="18"/>
+        <f>I57-F57</f>
         <v>2.7546296296350192E-2</v>
       </c>
       <c r="N57" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M57:$M57)</f>
         <v>39.666666666744277</v>
       </c>
       <c r="O57" s="13"/>
@@ -7695,27 +7696,27 @@
       <c r="Q57" s="62"/>
       <c r="R57" s="62"/>
       <c r="T57" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E57-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I57+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B57&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 10:53:14-0600',mode:absolute,to:'2016-05-20 11:36:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U57" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y57&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V57" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A57,3))-VALUE(LEFT(A56,3))</f>
         <v>1</v>
       </c>
       <c r="W57" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D57,LEN(D57)-4)/10000</f>
         <v>4.8899999999999999E-2</v>
       </c>
       <c r="X57" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H57,LEN(H57)-4)/10000</f>
         <v>23.331199999999999</v>
       </c>
       <c r="Y57" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X57-W57)</f>
         <v>23.282299999999999</v>
       </c>
       <c r="Z57" s="75" t="e">
@@ -7727,7 +7728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="61" t="s">
         <v>519</v>
       </c>
@@ -7759,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B58),(B58-1)&amp;"/"&amp;B58,B58&amp;"/"&amp;(B58+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L58" s="61" t="str">
@@ -7767,11 +7768,11 @@
         <v>SANTIZO</v>
       </c>
       <c r="M58" s="12">
-        <f t="shared" si="18"/>
+        <f>I58-F58</f>
         <v>3.0937499999708962E-2</v>
       </c>
       <c r="N58" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M58:$M58)</f>
         <v>44.549999999580905</v>
       </c>
       <c r="O58" s="13"/>
@@ -7779,27 +7780,27 @@
       <c r="Q58" s="62"/>
       <c r="R58" s="62"/>
       <c r="T58" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E58-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I58+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B58&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 11:49:13-0600',mode:absolute,to:'2016-05-20 12:37:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U58" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y58&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V58" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A58,3))-VALUE(LEFT(A57,3))</f>
         <v>1</v>
       </c>
       <c r="W58" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D58,LEN(D58)-4)/10000</f>
         <v>23.298400000000001</v>
       </c>
       <c r="X58" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H58,LEN(H58)-4)/10000</f>
         <v>1.43E-2</v>
       </c>
       <c r="Y58" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X58-W58)</f>
         <v>23.284100000000002</v>
       </c>
       <c r="Z58" s="75" t="e">
@@ -7811,7 +7812,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="61" t="s">
         <v>468</v>
       </c>
@@ -7843,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B59),(B59-1)&amp;"/"&amp;B59,B59&amp;"/"&amp;(B59+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L59" s="61" t="str">
@@ -7851,11 +7852,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M59" s="12">
-        <f t="shared" si="18"/>
+        <f>I59-F59</f>
         <v>2.6724537041445728E-2</v>
       </c>
       <c r="N59" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M59:$M59)</f>
         <v>38.483333339681849</v>
       </c>
       <c r="O59" s="13"/>
@@ -7863,27 +7864,27 @@
       <c r="Q59" s="62"/>
       <c r="R59" s="62"/>
       <c r="T59" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E59-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I59+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B59&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 11:10:34-0600',mode:absolute,to:'2016-05-20 11:52:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U59" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y59&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V59" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A59,3))-VALUE(LEFT(A58,3))</f>
         <v>1</v>
       </c>
       <c r="W59" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D59,LEN(D59)-4)/10000</f>
         <v>4.4200000000000003E-2</v>
       </c>
       <c r="X59" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H59,LEN(H59)-4)/10000</f>
         <v>23.3325</v>
       </c>
       <c r="Y59" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X59-W59)</f>
         <v>23.2883</v>
       </c>
       <c r="Z59" s="75" t="e">
@@ -7927,7 +7928,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B60),(B60-1)&amp;"/"&amp;B60,B60&amp;"/"&amp;(B60+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L60" s="61" t="str">
@@ -7935,13 +7936,13 @@
         <v>SPECTOR</v>
       </c>
       <c r="M60" s="12">
-        <f t="shared" si="18"/>
+        <f>I60-F60</f>
         <v>2.6863425926421769E-2</v>
       </c>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
       <c r="P60" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M60:$M60)</f>
         <v>38.683333334047347</v>
       </c>
       <c r="Q60" s="62" t="s">
@@ -7951,27 +7952,27 @@
         <v>639</v>
       </c>
       <c r="T60" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E60-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I60+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B60&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 12:00:09-0600',mode:absolute,to:'2016-05-20 12:42:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U60" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y60&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V60" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A60,3))-VALUE(LEFT(A59,3))</f>
         <v>1</v>
       </c>
       <c r="W60" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D60,LEN(D60)-4)/10000</f>
         <v>23.299800000000001</v>
       </c>
       <c r="X60" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H60,LEN(H60)-4)/10000</f>
         <v>4.5124000000000004</v>
       </c>
       <c r="Y60" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X60-W60)</f>
         <v>18.787400000000002</v>
       </c>
       <c r="Z60" s="75">
@@ -7983,7 +7984,7 @@
         <v>SIGNAL</v>
       </c>
     </row>
-    <row r="61" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="61" t="s">
         <v>507</v>
       </c>
@@ -8015,7 +8016,7 @@
         <v>1</v>
       </c>
       <c r="K61" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B61),(B61-1)&amp;"/"&amp;B61,B61&amp;"/"&amp;(B61+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L61" s="61" t="str">
@@ -8023,11 +8024,11 @@
         <v>DE LA ROSA</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="18"/>
+        <f>I61-F61</f>
         <v>2.7222222219279502E-2</v>
       </c>
       <c r="N61" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M61:$M61)</f>
         <v>39.199999995762482</v>
       </c>
       <c r="O61" s="13"/>
@@ -8035,27 +8036,27 @@
       <c r="Q61" s="62"/>
       <c r="R61" s="62"/>
       <c r="T61" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E61-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I61+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B61&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 11:24:13-0600',mode:absolute,to:'2016-05-20 12:07:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U61" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y61&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V61" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A61,3))-VALUE(LEFT(A60,3))</f>
         <v>1</v>
       </c>
       <c r="W61" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D61,LEN(D61)-4)/10000</f>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X61" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H61,LEN(H61)-4)/10000</f>
         <v>23.323399999999999</v>
       </c>
       <c r="Y61" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X61-W61)</f>
         <v>23.277699999999999</v>
       </c>
       <c r="Z61" s="75">
@@ -8067,7 +8068,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="62" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="61" t="s">
         <v>493</v>
       </c>
@@ -8099,7 +8100,7 @@
         <v>1</v>
       </c>
       <c r="K62" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B62),(B62-1)&amp;"/"&amp;B62,B62&amp;"/"&amp;(B62+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L62" s="61" t="str">
@@ -8107,11 +8108,11 @@
         <v>DE LA ROSA</v>
       </c>
       <c r="M62" s="12">
-        <f t="shared" si="18"/>
+        <f>I62-F62</f>
         <v>4.2129629626288079E-2</v>
       </c>
       <c r="N62" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M62:$M62)</f>
         <v>60.666666661854833</v>
       </c>
       <c r="O62" s="13"/>
@@ -8119,27 +8120,27 @@
       <c r="Q62" s="62"/>
       <c r="R62" s="62"/>
       <c r="T62" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E62-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I62+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B62&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 12:18:55-0600',mode:absolute,to:'2016-05-20 13:23:22-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U62" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y62&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V62" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A62,3))-VALUE(LEFT(A61,3))</f>
         <v>1</v>
       </c>
       <c r="W62" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D62,LEN(D62)-4)/10000</f>
         <v>23.290700000000001</v>
       </c>
       <c r="X62" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H62,LEN(H62)-4)/10000</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y62" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X62-W62)</f>
         <v>23.275700000000001</v>
       </c>
       <c r="Z62" s="75">
@@ -8151,7 +8152,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="63" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="61" t="s">
         <v>448</v>
       </c>
@@ -8183,7 +8184,7 @@
         <v>1</v>
       </c>
       <c r="K63" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B63),(B63-1)&amp;"/"&amp;B63,B63&amp;"/"&amp;(B63+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L63" s="61" t="str">
@@ -8191,11 +8192,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M63" s="12">
-        <f t="shared" si="18"/>
+        <f>I63-F63</f>
         <v>2.9895833336922806E-2</v>
       </c>
       <c r="N63" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M63:$M63)</f>
         <v>43.05000000516884</v>
       </c>
       <c r="O63" s="13"/>
@@ -8203,27 +8204,27 @@
       <c r="Q63" s="62"/>
       <c r="R63" s="62"/>
       <c r="T63" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E63-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I63+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B63&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 11:36:00-0600',mode:absolute,to:'2016-05-20 12:22:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U63" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y63&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V63" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A63,3))-VALUE(LEFT(A62,3))</f>
         <v>1</v>
       </c>
       <c r="W63" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D63,LEN(D63)-4)/10000</f>
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="X63" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H63,LEN(H63)-4)/10000</f>
         <v>23.340399999999999</v>
       </c>
       <c r="Y63" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X63-W63)</f>
         <v>23.2926</v>
       </c>
       <c r="Z63" s="75">
@@ -8235,7 +8236,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="64" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="61" t="s">
         <v>533</v>
       </c>
@@ -8267,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B64),(B64-1)&amp;"/"&amp;B64,B64&amp;"/"&amp;(B64+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L64" s="61" t="str">
@@ -8275,11 +8276,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M64" s="12">
-        <f t="shared" si="18"/>
+        <f>I64-F64</f>
         <v>3.1539351846731734E-2</v>
       </c>
       <c r="N64" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M64:$M64)</f>
         <v>45.416666659293696</v>
       </c>
       <c r="O64" s="13"/>
@@ -8287,27 +8288,27 @@
       <c r="Q64" s="62"/>
       <c r="R64" s="62"/>
       <c r="T64" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E64-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I64+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B64&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 12:37:00-0600',mode:absolute,to:'2016-05-20 13:26:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U64" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y64&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V64" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A64,3))-VALUE(LEFT(A63,3))</f>
         <v>1</v>
       </c>
       <c r="W64" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D64,LEN(D64)-4)/10000</f>
         <v>23.306000000000001</v>
       </c>
       <c r="X64" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H64,LEN(H64)-4)/10000</f>
         <v>1.52E-2</v>
       </c>
       <c r="Y64" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X64-W64)</f>
         <v>23.290800000000001</v>
       </c>
       <c r="Z64" s="75" t="e">
@@ -8319,7 +8320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="61" t="s">
         <v>494</v>
       </c>
@@ -8351,7 +8352,7 @@
         <v>1</v>
       </c>
       <c r="K65" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B65),(B65-1)&amp;"/"&amp;B65,B65&amp;"/"&amp;(B65+1))</f>
         <v>4037/4038</v>
       </c>
       <c r="L65" s="61" t="str">
@@ -8359,11 +8360,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M65" s="12">
-        <f t="shared" si="18"/>
+        <f>I65-F65</f>
         <v>2.7638888888759539E-2</v>
       </c>
       <c r="N65" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M65:$M65)</f>
         <v>39.799999999813735</v>
       </c>
       <c r="O65" s="13"/>
@@ -8371,27 +8372,27 @@
       <c r="Q65" s="62"/>
       <c r="R65" s="62"/>
       <c r="T65" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E65-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I65+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B65&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 11:53:58-0600',mode:absolute,to:'2016-05-20 12:37:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U65" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y65&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V65" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A65,3))-VALUE(LEFT(A64,3))</f>
         <v>1</v>
       </c>
       <c r="W65" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D65,LEN(D65)-4)/10000</f>
         <v>5.0599999999999999E-2</v>
       </c>
       <c r="X65" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H65,LEN(H65)-4)/10000</f>
         <v>23.331199999999999</v>
       </c>
       <c r="Y65" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X65-W65)</f>
         <v>23.2806</v>
       </c>
       <c r="Z65" s="75">
@@ -8403,7 +8404,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="66" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="61" t="s">
         <v>490</v>
       </c>
@@ -8435,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B66),(B66-1)&amp;"/"&amp;B66,B66&amp;"/"&amp;(B66+1))</f>
         <v>4037/4038</v>
       </c>
       <c r="L66" s="61" t="str">
@@ -8443,11 +8444,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M66" s="12">
-        <f t="shared" si="18"/>
+        <f>I66-F66</f>
         <v>3.5902777774026617E-2</v>
       </c>
       <c r="N66" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M66:$M66)</f>
         <v>51.699999994598329</v>
       </c>
       <c r="O66" s="13"/>
@@ -8455,27 +8456,27 @@
       <c r="Q66" s="62"/>
       <c r="R66" s="62"/>
       <c r="T66" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E66-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I66+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B66&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 12:43:43-0600',mode:absolute,to:'2016-05-20 13:38:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U66" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y66&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V66" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A66,3))-VALUE(LEFT(A65,3))</f>
         <v>1</v>
       </c>
       <c r="W66" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D66,LEN(D66)-4)/10000</f>
         <v>23.298200000000001</v>
       </c>
       <c r="X66" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H66,LEN(H66)-4)/10000</f>
         <v>1.72E-2</v>
       </c>
       <c r="Y66" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X66-W66)</f>
         <v>23.281000000000002</v>
       </c>
       <c r="Z66" s="75" t="e">
@@ -8487,7 +8488,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="61" t="s">
         <v>499</v>
       </c>
@@ -8519,7 +8520,7 @@
         <v>1</v>
       </c>
       <c r="K67" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B67),(B67-1)&amp;"/"&amp;B67,B67&amp;"/"&amp;(B67+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L67" s="61" t="str">
@@ -8527,11 +8528,11 @@
         <v>STEWART</v>
       </c>
       <c r="M67" s="12">
-        <f t="shared" si="18"/>
+        <f>I67-F67</f>
         <v>2.8437499997380655E-2</v>
       </c>
       <c r="N67" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M67:$M67)</f>
         <v>40.949999996228144</v>
       </c>
       <c r="O67" s="13"/>
@@ -8539,27 +8540,27 @@
       <c r="Q67" s="62"/>
       <c r="R67" s="62"/>
       <c r="T67" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E67-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I67+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B67&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 12:12:53-0600',mode:absolute,to:'2016-05-20 12:58:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U67" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y67&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V67" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A67,3))-VALUE(LEFT(A66,3))</f>
         <v>1</v>
       </c>
       <c r="W67" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D67,LEN(D67)-4)/10000</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X67" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H67,LEN(H67)-4)/10000</f>
         <v>23.329699999999999</v>
       </c>
       <c r="Y67" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X67-W67)</f>
         <v>23.2837</v>
       </c>
       <c r="Z67" s="75">
@@ -8571,7 +8572,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="68" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="s">
         <v>469</v>
       </c>
@@ -8603,7 +8604,7 @@
         <v>1</v>
       </c>
       <c r="K68" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B68),(B68-1)&amp;"/"&amp;B68,B68&amp;"/"&amp;(B68+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L68" s="61" t="str">
@@ -8611,11 +8612,11 @@
         <v>STEWART</v>
       </c>
       <c r="M68" s="12">
-        <f t="shared" si="18"/>
+        <f>I68-F68</f>
         <v>3.3124999994470272E-2</v>
       </c>
       <c r="N68" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M68:$M68)</f>
         <v>47.699999992037192</v>
       </c>
       <c r="O68" s="13"/>
@@ -8623,27 +8624,27 @@
       <c r="Q68" s="62"/>
       <c r="R68" s="62"/>
       <c r="T68" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E68-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I68+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B68&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 13:02:23-0600',mode:absolute,to:'2016-05-20 13:53:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U68" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y68&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V68" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A68,3))-VALUE(LEFT(A67,3))</f>
         <v>1</v>
       </c>
       <c r="W68" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D68,LEN(D68)-4)/10000</f>
         <v>23.2987</v>
       </c>
       <c r="X68" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H68,LEN(H68)-4)/10000</f>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y68" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X68-W68)</f>
         <v>23.282900000000001</v>
       </c>
       <c r="Z68" s="75">
@@ -8687,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B69),(B69-1)&amp;"/"&amp;B69,B69&amp;"/"&amp;(B69+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L69" s="61" t="str">
@@ -8695,13 +8696,13 @@
         <v>BRUDER</v>
       </c>
       <c r="M69" s="12">
-        <f t="shared" si="18"/>
+        <f>I69-F69</f>
         <v>6.1342592598521151E-3</v>
       </c>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
       <c r="P69" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M69:$M69)</f>
         <v>8.8333333341870457</v>
       </c>
       <c r="Q69" s="62" t="s">
@@ -8711,27 +8712,27 @@
         <v>640</v>
       </c>
       <c r="T69" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E69-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I69+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B69&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 12:31:57-0600',mode:absolute,to:'2016-05-20 12:44:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U69" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y69&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V69" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A69,3))-VALUE(LEFT(A68,3))</f>
         <v>1</v>
       </c>
       <c r="W69" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D69,LEN(D69)-4)/10000</f>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X69" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H69,LEN(H69)-4)/10000</f>
         <v>0.1215</v>
       </c>
       <c r="Y69" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X69-W69)</f>
         <v>7.5800000000000006E-2</v>
       </c>
       <c r="Z69" s="75" t="e">
@@ -8743,7 +8744,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="61" t="s">
         <v>528</v>
       </c>
@@ -8775,7 +8776,7 @@
         <v>1</v>
       </c>
       <c r="K70" s="61" t="str">
-        <f t="shared" si="17"/>
+        <f>IF(ISEVEN(B70),(B70-1)&amp;"/"&amp;B70,B70&amp;"/"&amp;(B70+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L70" s="61" t="str">
@@ -8783,11 +8784,11 @@
         <v>BRUDER</v>
       </c>
       <c r="M70" s="12">
-        <f t="shared" si="18"/>
+        <f>I70-F70</f>
         <v>4.3912037035624962E-2</v>
       </c>
       <c r="N70" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M70:$M70)</f>
         <v>63.233333331299946</v>
       </c>
       <c r="O70" s="13"/>
@@ -8795,27 +8796,27 @@
       <c r="Q70" s="62"/>
       <c r="R70" s="62"/>
       <c r="T70" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E70-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I70+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B70&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 13:25:45-0600',mode:absolute,to:'2016-05-20 14:33:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U70" s="74" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(Y70&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V70" s="74">
-        <f t="shared" si="21"/>
+        <f>VALUE(LEFT(A70,3))-VALUE(LEFT(A69,3))</f>
         <v>1</v>
       </c>
       <c r="W70" s="74">
-        <f t="shared" si="22"/>
+        <f>RIGHT(D70,LEN(D70)-4)/10000</f>
         <v>23.3</v>
       </c>
       <c r="X70" s="74">
-        <f t="shared" si="23"/>
+        <f>RIGHT(H70,LEN(H70)-4)/10000</f>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y70" s="74">
-        <f t="shared" si="24"/>
+        <f>ABS(X70-W70)</f>
         <v>23.285499999999999</v>
       </c>
       <c r="Z70" s="75">
@@ -8827,7 +8828,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="71" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="61" t="s">
         <v>492</v>
       </c>
@@ -8859,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="61" t="str">
-        <f t="shared" ref="K71:K133" si="25">IF(ISEVEN(B71),(B71-1)&amp;"/"&amp;B71,B71&amp;"/"&amp;(B71+1))</f>
+        <f>IF(ISEVEN(B71),(B71-1)&amp;"/"&amp;B71,B71&amp;"/"&amp;(B71+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L71" s="61" t="str">
@@ -8867,11 +8868,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M71" s="12">
-        <f t="shared" ref="M71:M133" si="26">I71-F71</f>
+        <f>I71-F71</f>
         <v>3.478009258833481E-2</v>
       </c>
       <c r="N71" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M71:$M71)</f>
         <v>50.083333327202126</v>
       </c>
       <c r="O71" s="13"/>
@@ -8879,27 +8880,27 @@
       <c r="Q71" s="62"/>
       <c r="R71" s="62"/>
       <c r="T71" s="74" t="str">
-        <f t="shared" ref="T71:T133" si="27">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E71-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I71+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B71&amp;"%22')),sort:!(Time,asc))"</f>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E71-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I71+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B71&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 12:39:01-0600',mode:absolute,to:'2016-05-20 13:35:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U71" s="74" t="str">
-        <f t="shared" ref="U71:U133" si="28">IF(Y71&lt;23,"Y","N")</f>
+        <f>IF(Y71&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V71" s="74">
-        <f t="shared" ref="V71:V133" si="29">VALUE(LEFT(A71,3))-VALUE(LEFT(A70,3))</f>
+        <f>VALUE(LEFT(A71,3))-VALUE(LEFT(A70,3))</f>
         <v>1</v>
       </c>
       <c r="W71" s="74">
-        <f t="shared" ref="W71:W133" si="30">RIGHT(D71,LEN(D71)-4)/10000</f>
+        <f>RIGHT(D71,LEN(D71)-4)/10000</f>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="X71" s="74">
-        <f t="shared" ref="X71:X133" si="31">RIGHT(H71,LEN(H71)-4)/10000</f>
+        <f>RIGHT(H71,LEN(H71)-4)/10000</f>
         <v>23.33</v>
       </c>
       <c r="Y71" s="74">
-        <f t="shared" ref="Y71:Y133" si="32">ABS(X71-W71)</f>
+        <f>ABS(X71-W71)</f>
         <v>23.283299999999997</v>
       </c>
       <c r="Z71" s="75" t="e">
@@ -8911,7 +8912,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="61" t="s">
         <v>470</v>
       </c>
@@ -8943,7 +8944,7 @@
         <v>2</v>
       </c>
       <c r="K72" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B72),(B72-1)&amp;"/"&amp;B72,B72&amp;"/"&amp;(B72+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L72" s="61" t="str">
@@ -8951,11 +8952,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M72" s="12">
-        <f t="shared" si="26"/>
+        <f>I72-F72</f>
         <v>4.0729166663368233E-2</v>
       </c>
       <c r="N72" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M72:$M72)</f>
         <v>58.649999995250255</v>
       </c>
       <c r="O72" s="13"/>
@@ -8963,27 +8964,27 @@
       <c r="Q72" s="62"/>
       <c r="R72" s="62"/>
       <c r="T72" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E72-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I72+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B72&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 13:37:43-0600',mode:absolute,to:'2016-05-20 14:39:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U72" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y72&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V72" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A72,3))-VALUE(LEFT(A71,3))</f>
         <v>1</v>
       </c>
       <c r="W72" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D72,LEN(D72)-4)/10000</f>
         <v>23.2987</v>
       </c>
       <c r="X72" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H72,LEN(H72)-4)/10000</f>
         <v>1.52E-2</v>
       </c>
       <c r="Y72" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X72-W72)</f>
         <v>23.2835</v>
       </c>
       <c r="Z72" s="75">
@@ -9027,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B73),(B73-1)&amp;"/"&amp;B73,B73&amp;"/"&amp;(B73+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L73" s="61" t="str">
@@ -9035,7 +9036,7 @@
         <v>SPECTOR</v>
       </c>
       <c r="M73" s="12">
-        <f t="shared" si="26"/>
+        <f>I73-F73</f>
         <v>1.1458333334303461E-2</v>
       </c>
       <c r="N73" s="13"/>
@@ -9051,27 +9052,27 @@
         <v>641</v>
       </c>
       <c r="T73" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E73-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I73+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B73&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 13:06:55-0600',mode:absolute,to:'2016-05-20 13:29:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U73" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y73&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V73" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A73,3))-VALUE(LEFT(A72,3))</f>
         <v>1</v>
       </c>
       <c r="W73" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D73,LEN(D73)-4)/10000</f>
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="X73" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H73,LEN(H73)-4)/10000</f>
         <v>6.4722</v>
       </c>
       <c r="Y73" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X73-W73)</f>
         <v>6.4282000000000004</v>
       </c>
       <c r="Z73" s="75" t="e">
@@ -9083,7 +9084,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="61" t="s">
         <v>385</v>
       </c>
@@ -9115,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B74),(B74-1)&amp;"/"&amp;B74,B74&amp;"/"&amp;(B74+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L74" s="61" t="str">
@@ -9123,7 +9124,7 @@
         <v>SPECTOR</v>
       </c>
       <c r="M74" s="12">
-        <f t="shared" si="26"/>
+        <f>I74-F74</f>
         <v>1.7245370370801538E-2</v>
       </c>
       <c r="N74" s="13"/>
@@ -9132,27 +9133,27 @@
       <c r="Q74" s="62"/>
       <c r="R74" s="62"/>
       <c r="T74" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E74-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I74+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B74&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 13:29:23-0600',mode:absolute,to:'2016-05-20 13:57:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U74" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y74&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V74" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A74,3))-VALUE(LEFT(A73,3))</f>
         <v>0</v>
       </c>
       <c r="W74" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D74,LEN(D74)-4)/10000</f>
         <v>6.4714</v>
       </c>
       <c r="X74" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H74,LEN(H74)-4)/10000</f>
         <v>23.332699999999999</v>
       </c>
       <c r="Y74" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X74-W74)</f>
         <v>16.8613</v>
       </c>
       <c r="Z74" s="75" t="e">
@@ -9164,7 +9165,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="61" t="s">
         <v>386</v>
       </c>
@@ -9196,7 +9197,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B75),(B75-1)&amp;"/"&amp;B75,B75&amp;"/"&amp;(B75+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L75" s="61" t="str">
@@ -9204,11 +9205,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M75" s="12">
-        <f t="shared" si="26"/>
+        <f>I75-F75</f>
         <v>3.1238425923220348E-2</v>
       </c>
       <c r="N75" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M75:$M75)</f>
         <v>44.983333329437301</v>
       </c>
       <c r="O75" s="13"/>
@@ -9216,27 +9217,27 @@
       <c r="Q75" s="62"/>
       <c r="R75" s="62"/>
       <c r="T75" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E75-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I75+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B75&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 13:58:39-0600',mode:absolute,to:'2016-05-20 14:47:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U75" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y75&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V75" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A75,3))-VALUE(LEFT(A74,3))</f>
         <v>1</v>
       </c>
       <c r="W75" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D75,LEN(D75)-4)/10000</f>
         <v>23.3002</v>
       </c>
       <c r="X75" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H75,LEN(H75)-4)/10000</f>
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="Y75" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X75-W75)</f>
         <v>23.284400000000002</v>
       </c>
       <c r="Z75" s="75" t="e">
@@ -9248,7 +9249,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="61" t="s">
         <v>491</v>
       </c>
@@ -9280,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B76),(B76-1)&amp;"/"&amp;B76,B76&amp;"/"&amp;(B76+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L76" s="61" t="str">
@@ -9288,11 +9289,11 @@
         <v>DE LA ROSA</v>
       </c>
       <c r="M76" s="12">
-        <f t="shared" si="26"/>
+        <f>I76-F76</f>
         <v>2.7905092589207925E-2</v>
       </c>
       <c r="N76" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M76:$M76)</f>
         <v>40.183333328459412</v>
       </c>
       <c r="O76" s="13"/>
@@ -9300,27 +9301,27 @@
       <c r="Q76" s="62"/>
       <c r="R76" s="62"/>
       <c r="T76" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E76-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I76+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B76&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 13:27:10-0600',mode:absolute,to:'2016-05-20 14:10:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U76" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y76&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V76" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A76,3))-VALUE(LEFT(A75,3))</f>
         <v>3</v>
       </c>
       <c r="W76" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D76,LEN(D76)-4)/10000</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X76" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H76,LEN(H76)-4)/10000</f>
         <v>23.328700000000001</v>
       </c>
       <c r="Y76" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X76-W76)</f>
         <v>23.282500000000002</v>
       </c>
       <c r="Z76" s="75" t="e">
@@ -9332,7 +9333,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="61" t="s">
         <v>471</v>
       </c>
@@ -9364,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B77),(B77-1)&amp;"/"&amp;B77,B77&amp;"/"&amp;(B77+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L77" s="61" t="str">
@@ -9372,11 +9373,11 @@
         <v>DE LA ROSA</v>
       </c>
       <c r="M77" s="12">
-        <f t="shared" si="26"/>
+        <f>I77-F77</f>
         <v>2.9537037036789116E-2</v>
       </c>
       <c r="N77" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M77:$M77)</f>
         <v>42.533333332976326</v>
       </c>
       <c r="O77" s="13"/>
@@ -9384,27 +9385,27 @@
       <c r="Q77" s="62"/>
       <c r="R77" s="62"/>
       <c r="T77" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E77-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I77+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B77&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 14:19:23-0600',mode:absolute,to:'2016-05-20 15:09:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U77" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y77&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V77" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A77,3))-VALUE(LEFT(A76,3))</f>
         <v>1</v>
       </c>
       <c r="W77" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D77,LEN(D77)-4)/10000</f>
         <v>23.299399999999999</v>
       </c>
       <c r="X77" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H77,LEN(H77)-4)/10000</f>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y77" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X77-W77)</f>
         <v>23.284899999999997</v>
       </c>
       <c r="Z77" s="75" t="e">
@@ -9416,7 +9417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="61" t="s">
         <v>402</v>
       </c>
@@ -9448,7 +9449,7 @@
         <v>1</v>
       </c>
       <c r="K78" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B78),(B78-1)&amp;"/"&amp;B78,B78&amp;"/"&amp;(B78+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L78" s="61" t="str">
@@ -9456,11 +9457,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M78" s="12">
-        <f t="shared" si="26"/>
+        <f>I78-F78</f>
         <v>2.8981481482333038E-2</v>
       </c>
       <c r="N78" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M78:$M78)</f>
         <v>41.733333334559575</v>
       </c>
       <c r="O78" s="13"/>
@@ -9468,27 +9469,27 @@
       <c r="Q78" s="62"/>
       <c r="R78" s="62"/>
       <c r="T78" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E78-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I78+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B78&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 13:42:09-0600',mode:absolute,to:'2016-05-20 14:27:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U78" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y78&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V78" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A78,3))-VALUE(LEFT(A77,3))</f>
         <v>1</v>
       </c>
       <c r="W78" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D78,LEN(D78)-4)/10000</f>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X78" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H78,LEN(H78)-4)/10000</f>
         <v>23.3414</v>
       </c>
       <c r="Y78" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X78-W78)</f>
         <v>23.296500000000002</v>
       </c>
       <c r="Z78" s="75">
@@ -9500,7 +9501,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="79" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="61" t="s">
         <v>529</v>
       </c>
@@ -9532,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B79),(B79-1)&amp;"/"&amp;B79,B79&amp;"/"&amp;(B79+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L79" s="61" t="str">
@@ -9540,11 +9541,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M79" s="12">
-        <f t="shared" si="26"/>
+        <f>I79-F79</f>
         <v>2.846064815093996E-2</v>
       </c>
       <c r="N79" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M79:$M79)</f>
         <v>40.983333337353542</v>
       </c>
       <c r="O79" s="13"/>
@@ -9552,27 +9553,27 @@
       <c r="Q79" s="62"/>
       <c r="R79" s="62"/>
       <c r="T79" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E79-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I79+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B79&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 14:34:18-0600',mode:absolute,to:'2016-05-20 15:18:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U79" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y79&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V79" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A79,3))-VALUE(LEFT(A78,3))</f>
         <v>1</v>
       </c>
       <c r="W79" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D79,LEN(D79)-4)/10000</f>
         <v>23.3005</v>
       </c>
       <c r="X79" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H79,LEN(H79)-4)/10000</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y79" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X79-W79)</f>
         <v>23.285499999999999</v>
       </c>
       <c r="Z79" s="75" t="e">
@@ -9584,7 +9585,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="61" t="s">
         <v>445</v>
       </c>
@@ -9616,7 +9617,7 @@
         <v>1</v>
       </c>
       <c r="K80" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B80),(B80-1)&amp;"/"&amp;B80,B80&amp;"/"&amp;(B80+1))</f>
         <v>4037/4038</v>
       </c>
       <c r="L80" s="61" t="str">
@@ -9624,11 +9625,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M80" s="12">
-        <f t="shared" si="26"/>
+        <f>I80-F80</f>
         <v>3.959490740817273E-2</v>
       </c>
       <c r="N80" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M80:$M80)</f>
         <v>57.016666667768732</v>
       </c>
       <c r="O80" s="13"/>
@@ -9636,27 +9637,27 @@
       <c r="Q80" s="62"/>
       <c r="R80" s="62"/>
       <c r="T80" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E80-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I80+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B80&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 13:50:32-0600',mode:absolute,to:'2016-05-20 14:51:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U80" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y80&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V80" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A80,3))-VALUE(LEFT(A79,3))</f>
         <v>1</v>
       </c>
       <c r="W80" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D80,LEN(D80)-4)/10000</f>
         <v>4.8800000000000003E-2</v>
       </c>
       <c r="X80" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H80,LEN(H80)-4)/10000</f>
         <v>23.328499999999998</v>
       </c>
       <c r="Y80" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X80-W80)</f>
         <v>23.279699999999998</v>
       </c>
       <c r="Z80" s="75">
@@ -9668,7 +9669,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="81" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="61" t="s">
         <v>472</v>
       </c>
@@ -9700,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B81),(B81-1)&amp;"/"&amp;B81,B81&amp;"/"&amp;(B81+1))</f>
         <v>4037/4038</v>
       </c>
       <c r="L81" s="61" t="str">
@@ -9708,11 +9709,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M81" s="12">
-        <f t="shared" si="26"/>
+        <f>I81-F81</f>
         <v>2.848379628994735E-2</v>
       </c>
       <c r="N81" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M81:$M81)</f>
         <v>41.016666657524183</v>
       </c>
       <c r="O81" s="13"/>
@@ -9720,27 +9721,27 @@
       <c r="Q81" s="62"/>
       <c r="R81" s="62"/>
       <c r="T81" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E81-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I81+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B81&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 14:51:35-0600',mode:absolute,to:'2016-05-20 15:35:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U81" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y81&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V81" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A81,3))-VALUE(LEFT(A80,3))</f>
         <v>1</v>
       </c>
       <c r="W81" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D81,LEN(D81)-4)/10000</f>
         <v>23.296800000000001</v>
       </c>
       <c r="X81" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H81,LEN(H81)-4)/10000</f>
         <v>1.54E-2</v>
       </c>
       <c r="Y81" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X81-W81)</f>
         <v>23.281400000000001</v>
       </c>
       <c r="Z81" s="75" t="e">
@@ -9752,7 +9753,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="61" t="s">
         <v>392</v>
       </c>
@@ -9784,7 +9785,7 @@
         <v>1</v>
       </c>
       <c r="K82" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B82),(B82-1)&amp;"/"&amp;B82,B82&amp;"/"&amp;(B82+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L82" s="61" t="str">
@@ -9792,11 +9793,11 @@
         <v>STEWART</v>
       </c>
       <c r="M82" s="12">
-        <f t="shared" si="26"/>
+        <f>I82-F82</f>
         <v>4.1504629625706002E-2</v>
       </c>
       <c r="N82" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M82:$M82)</f>
         <v>59.766666661016643</v>
       </c>
       <c r="O82" s="13"/>
@@ -9804,27 +9805,27 @@
       <c r="Q82" s="62"/>
       <c r="R82" s="62"/>
       <c r="T82" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E82-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I82+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B82&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 13:55:21-0600',mode:absolute,to:'2016-05-20 15:02:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U82" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y82&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V82" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A82,3))-VALUE(LEFT(A81,3))</f>
         <v>1</v>
       </c>
       <c r="W82" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D82,LEN(D82)-4)/10000</f>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="X82" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H82,LEN(H82)-4)/10000</f>
         <v>23.3293</v>
       </c>
       <c r="Y82" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X82-W82)</f>
         <v>23.2822</v>
       </c>
       <c r="Z82" s="75">
@@ -9836,7 +9837,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="83" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="61" t="s">
         <v>444</v>
       </c>
@@ -9868,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B83),(B83-1)&amp;"/"&amp;B83,B83&amp;"/"&amp;(B83+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L83" s="61" t="str">
@@ -9876,11 +9877,11 @@
         <v>STEWART</v>
       </c>
       <c r="M83" s="12">
-        <f t="shared" si="26"/>
+        <f>I83-F83</f>
         <v>2.7060185180744156E-2</v>
       </c>
       <c r="N83" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M83:$M83)</f>
         <v>38.966666660271585</v>
       </c>
       <c r="O83" s="13"/>
@@ -9888,27 +9889,27 @@
       <c r="Q83" s="62"/>
       <c r="R83" s="62"/>
       <c r="T83" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E83-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I83+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B83&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 15:09:25-0600',mode:absolute,to:'2016-05-20 15:51:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U83" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y83&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V83" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A83,3))-VALUE(LEFT(A82,3))</f>
         <v>1</v>
       </c>
       <c r="W83" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D83,LEN(D83)-4)/10000</f>
         <v>23.295300000000001</v>
       </c>
       <c r="X83" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H83,LEN(H83)-4)/10000</f>
         <v>1.47E-2</v>
       </c>
       <c r="Y83" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X83-W83)</f>
         <v>23.2806</v>
       </c>
       <c r="Z83" s="75" t="e">
@@ -9920,7 +9921,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="61" t="s">
         <v>393</v>
       </c>
@@ -9952,7 +9953,7 @@
         <v>1</v>
       </c>
       <c r="K84" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B84),(B84-1)&amp;"/"&amp;B84,B84&amp;"/"&amp;(B84+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L84" s="61" t="str">
@@ -9960,11 +9961,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M84" s="12">
-        <f t="shared" si="26"/>
+        <f>I84-F84</f>
         <v>2.7800925927294884E-2</v>
       </c>
       <c r="N84" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M84:$M84)</f>
         <v>40.033333335304633</v>
       </c>
       <c r="O84" s="13"/>
@@ -9972,27 +9973,27 @@
       <c r="Q84" s="62"/>
       <c r="R84" s="62"/>
       <c r="T84" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E84-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I84+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B84&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 14:35:33-0600',mode:absolute,to:'2016-05-20 15:19:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U84" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y84&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V84" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A84,3))-VALUE(LEFT(A83,3))</f>
         <v>1</v>
       </c>
       <c r="W84" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D84,LEN(D84)-4)/10000</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X84" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H84,LEN(H84)-4)/10000</f>
         <v>23.330400000000001</v>
       </c>
       <c r="Y84" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X84-W84)</f>
         <v>23.2849</v>
       </c>
       <c r="Z84" s="75">
@@ -10004,7 +10005,7 @@
         <v>SWITCH UNKNOWN</v>
       </c>
     </row>
-    <row r="85" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="61" t="s">
         <v>514</v>
       </c>
@@ -10036,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="K85" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B85),(B85-1)&amp;"/"&amp;B85,B85&amp;"/"&amp;(B85+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L85" s="61" t="str">
@@ -10044,11 +10045,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M85" s="12">
-        <f t="shared" si="26"/>
+        <f>I85-F85</f>
         <v>2.5509259256068617E-2</v>
       </c>
       <c r="N85" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M85:$M85)</f>
         <v>36.733333328738809</v>
       </c>
       <c r="O85" s="13"/>
@@ -10056,27 +10057,27 @@
       <c r="Q85" s="62"/>
       <c r="R85" s="62"/>
       <c r="T85" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E85-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I85+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B85&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 15:23:11-0600',mode:absolute,to:'2016-05-20 16:03:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U85" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y85&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V85" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A85,3))-VALUE(LEFT(A84,3))</f>
         <v>1</v>
       </c>
       <c r="W85" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D85,LEN(D85)-4)/10000</f>
         <v>23.297899999999998</v>
       </c>
       <c r="X85" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H85,LEN(H85)-4)/10000</f>
         <v>1.41E-2</v>
       </c>
       <c r="Y85" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X85-W85)</f>
         <v>23.283799999999999</v>
       </c>
       <c r="Z85" s="75">
@@ -10088,7 +10089,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="86" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="61" t="s">
         <v>515</v>
       </c>
@@ -10120,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B86),(B86-1)&amp;"/"&amp;B86,B86&amp;"/"&amp;(B86+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L86" s="61" t="str">
@@ -10128,11 +10129,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M86" s="12">
-        <f t="shared" si="26"/>
+        <f>I86-F86</f>
         <v>2.789351851970423E-2</v>
       </c>
       <c r="N86" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M86:$M86)</f>
         <v>40.166666668374091</v>
       </c>
       <c r="O86" s="13"/>
@@ -10140,27 +10141,27 @@
       <c r="Q86" s="62"/>
       <c r="R86" s="62"/>
       <c r="T86" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E86-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I86+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B86&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 14:39:38-0600',mode:absolute,to:'2016-05-20 15:23:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U86" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y86&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V86" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A86,3))-VALUE(LEFT(A85,3))</f>
         <v>1</v>
       </c>
       <c r="W86" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D86,LEN(D86)-4)/10000</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X86" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H86,LEN(H86)-4)/10000</f>
         <v>23.331099999999999</v>
       </c>
       <c r="Y86" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X86-W86)</f>
         <v>23.285599999999999</v>
       </c>
       <c r="Z86" s="75" t="e">
@@ -10172,7 +10173,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="61" t="s">
         <v>441</v>
       </c>
@@ -10204,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B87),(B87-1)&amp;"/"&amp;B87,B87&amp;"/"&amp;(B87+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L87" s="61" t="str">
@@ -10212,11 +10213,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M87" s="12">
-        <f t="shared" si="26"/>
+        <f>I87-F87</f>
         <v>3.3437499994761311E-2</v>
       </c>
       <c r="N87" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M87:$M87)</f>
         <v>48.149999992456287</v>
       </c>
       <c r="O87" s="13"/>
@@ -10224,27 +10225,27 @@
       <c r="Q87" s="62"/>
       <c r="R87" s="62"/>
       <c r="T87" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E87-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I87+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B87&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 15:32:55-0600',mode:absolute,to:'2016-05-20 16:25:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U87" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y87&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V87" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A87,3))-VALUE(LEFT(A86,3))</f>
         <v>1</v>
       </c>
       <c r="W87" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D87,LEN(D87)-4)/10000</f>
         <v>23.2988</v>
       </c>
       <c r="X87" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H87,LEN(H87)-4)/10000</f>
         <v>1.43E-2</v>
       </c>
       <c r="Y87" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X87-W87)</f>
         <v>23.284500000000001</v>
       </c>
       <c r="Z87" s="75" t="e">
@@ -10256,7 +10257,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="61" t="s">
         <v>498</v>
       </c>
@@ -10288,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B88),(B88-1)&amp;"/"&amp;B88,B88&amp;"/"&amp;(B88+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L88" s="61" t="str">
@@ -10296,11 +10297,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M88" s="12">
-        <f t="shared" si="26"/>
+        <f>I88-F88</f>
         <v>2.9317129628907423E-2</v>
       </c>
       <c r="N88" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M88:$M88)</f>
         <v>42.21666666562669</v>
       </c>
       <c r="O88" s="13"/>
@@ -10308,27 +10309,27 @@
       <c r="Q88" s="62"/>
       <c r="R88" s="62"/>
       <c r="T88" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E88-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I88+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B88&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 14:51:42-0600',mode:absolute,to:'2016-05-20 15:37:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U88" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y88&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V88" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A88,3))-VALUE(LEFT(A87,3))</f>
         <v>1</v>
       </c>
       <c r="W88" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D88,LEN(D88)-4)/10000</f>
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="X88" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H88,LEN(H88)-4)/10000</f>
         <v>23.333100000000002</v>
       </c>
       <c r="Y88" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X88-W88)</f>
         <v>23.286700000000003</v>
       </c>
       <c r="Z88" s="75" t="e">
@@ -10340,7 +10341,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="61" t="s">
         <v>460</v>
       </c>
@@ -10372,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B89),(B89-1)&amp;"/"&amp;B89,B89&amp;"/"&amp;(B89+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L89" s="61" t="str">
@@ -10380,11 +10381,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M89" s="12">
-        <f t="shared" si="26"/>
+        <f>I89-F89</f>
         <v>4.3645833327900618E-2</v>
       </c>
       <c r="N89" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M89:$M89)</f>
         <v>62.84999999217689</v>
       </c>
       <c r="O89" s="13"/>
@@ -10392,27 +10393,27 @@
       <c r="Q89" s="62"/>
       <c r="R89" s="62"/>
       <c r="T89" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E89-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I89+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B89&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 15:48:41-0600',mode:absolute,to:'2016-05-20 16:54:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U89" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y89&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V89" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A89,3))-VALUE(LEFT(A88,3))</f>
         <v>1</v>
       </c>
       <c r="W89" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D89,LEN(D89)-4)/10000</f>
         <v>23.299399999999999</v>
       </c>
       <c r="X89" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H89,LEN(H89)-4)/10000</f>
         <v>1.6E-2</v>
       </c>
       <c r="Y89" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X89-W89)</f>
         <v>23.2834</v>
       </c>
       <c r="Z89" s="75" t="e">
@@ -10424,7 +10425,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="61" t="s">
         <v>473</v>
       </c>
@@ -10456,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B90),(B90-1)&amp;"/"&amp;B90,B90&amp;"/"&amp;(B90+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L90" s="61" t="str">
@@ -10464,11 +10465,11 @@
         <v>DE LA ROSA</v>
       </c>
       <c r="M90" s="12">
-        <f t="shared" si="26"/>
+        <f>I90-F90</f>
         <v>2.6307870371965691E-2</v>
       </c>
       <c r="N90" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M90:$M90)</f>
         <v>37.883333335630596</v>
       </c>
       <c r="O90" s="13"/>
@@ -10476,27 +10477,27 @@
       <c r="Q90" s="62"/>
       <c r="R90" s="62"/>
       <c r="T90" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E90-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I90+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B90&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 15:11:06-0600',mode:absolute,to:'2016-05-20 15:53:00-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U90" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y90&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V90" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A90,3))-VALUE(LEFT(A89,3))</f>
         <v>1</v>
       </c>
       <c r="W90" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D90,LEN(D90)-4)/10000</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="X90" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H90,LEN(H90)-4)/10000</f>
         <v>23.3293</v>
       </c>
       <c r="Y90" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X90-W90)</f>
         <v>23.283300000000001</v>
       </c>
       <c r="Z90" s="75" t="e">
@@ -10508,7 +10509,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="61" t="s">
         <v>440</v>
       </c>
@@ -10540,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B91),(B91-1)&amp;"/"&amp;B91,B91&amp;"/"&amp;(B91+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L91" s="61" t="str">
@@ -10548,11 +10549,11 @@
         <v>DE LA ROSA</v>
       </c>
       <c r="M91" s="12">
-        <f t="shared" si="26"/>
+        <f>I91-F91</f>
         <v>3.7835648145119194E-2</v>
       </c>
       <c r="N91" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M91:$M91)</f>
         <v>54.483333328971639</v>
       </c>
       <c r="O91" s="13"/>
@@ -10560,27 +10561,27 @@
       <c r="Q91" s="62"/>
       <c r="R91" s="62"/>
       <c r="T91" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E91-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I91+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B91&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 16:01:52-0600',mode:absolute,to:'2016-05-20 17:00:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U91" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y91&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V91" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A91,3))-VALUE(LEFT(A90,3))</f>
         <v>1</v>
       </c>
       <c r="W91" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D91,LEN(D91)-4)/10000</f>
         <v>23.297499999999999</v>
       </c>
       <c r="X91" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H91,LEN(H91)-4)/10000</f>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y91" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X91-W91)</f>
         <v>23.281199999999998</v>
       </c>
       <c r="Z91" s="75" t="e">
@@ -10592,7 +10593,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="61" t="s">
         <v>443</v>
       </c>
@@ -10624,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="K92" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B92),(B92-1)&amp;"/"&amp;B92,B92&amp;"/"&amp;(B92+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L92" s="61" t="str">
@@ -10632,11 +10633,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M92" s="12">
-        <f t="shared" si="26"/>
+        <f>I92-F92</f>
         <v>2.792824074276723E-2</v>
       </c>
       <c r="N92" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M92:$M92)</f>
         <v>40.216666669584811</v>
       </c>
       <c r="O92" s="13"/>
@@ -10644,27 +10645,27 @@
       <c r="Q92" s="62"/>
       <c r="R92" s="62"/>
       <c r="T92" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E92-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I92+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B92&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 15:24:05-0600',mode:absolute,to:'2016-05-20 16:07:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U92" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y92&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V92" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A92,3))-VALUE(LEFT(A91,3))</f>
         <v>1</v>
       </c>
       <c r="W92" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D92,LEN(D92)-4)/10000</f>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X92" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H92,LEN(H92)-4)/10000</f>
         <v>23.335899999999999</v>
       </c>
       <c r="Y92" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X92-W92)</f>
         <v>23.290199999999999</v>
       </c>
       <c r="Z92" s="75">
@@ -10676,7 +10677,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="93" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="61" t="s">
         <v>439</v>
       </c>
@@ -10708,7 +10709,7 @@
         <v>2</v>
       </c>
       <c r="K93" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B93),(B93-1)&amp;"/"&amp;B93,B93&amp;"/"&amp;(B93+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L93" s="61" t="str">
@@ -10716,11 +10717,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M93" s="12">
-        <f t="shared" si="26"/>
+        <f>I93-F93</f>
         <v>3.6076388889341615E-2</v>
       </c>
       <c r="N93" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M93:$M93)</f>
         <v>51.950000000651926</v>
       </c>
       <c r="O93" s="13"/>
@@ -10728,27 +10729,27 @@
       <c r="Q93" s="62"/>
       <c r="R93" s="62"/>
       <c r="T93" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E93-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I93+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B93&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 16:19:34-0600',mode:absolute,to:'2016-05-20 17:14:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U93" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y93&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V93" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A93,3))-VALUE(LEFT(A92,3))</f>
         <v>1</v>
       </c>
       <c r="W93" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D93,LEN(D93)-4)/10000</f>
         <v>23.305900000000001</v>
       </c>
       <c r="X93" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H93,LEN(H93)-4)/10000</f>
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="Y93" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X93-W93)</f>
         <v>23.289400000000001</v>
       </c>
       <c r="Z93" s="75">
@@ -10760,7 +10761,7 @@
         <v>GRADE CROSSING</v>
       </c>
     </row>
-    <row r="94" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="61" t="s">
         <v>459</v>
       </c>
@@ -10792,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B94),(B94-1)&amp;"/"&amp;B94,B94&amp;"/"&amp;(B94+1))</f>
         <v>4037/4038</v>
       </c>
       <c r="L94" s="61" t="str">
@@ -10800,11 +10801,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M94" s="12">
-        <f t="shared" si="26"/>
+        <f>I94-F94</f>
         <v>3.0057870368182193E-2</v>
       </c>
       <c r="N94" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M94:$M94)</f>
         <v>43.283333330182359</v>
       </c>
       <c r="O94" s="13"/>
@@ -10812,27 +10813,27 @@
       <c r="Q94" s="62"/>
       <c r="R94" s="62"/>
       <c r="T94" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E94-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I94+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B94&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 15:36:29-0600',mode:absolute,to:'2016-05-20 16:23:11-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U94" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y94&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V94" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A94,3))-VALUE(LEFT(A93,3))</f>
         <v>1</v>
       </c>
       <c r="W94" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D94,LEN(D94)-4)/10000</f>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="X94" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H94,LEN(H94)-4)/10000</f>
         <v>23.3309</v>
       </c>
       <c r="Y94" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X94-W94)</f>
         <v>23.2836</v>
       </c>
       <c r="Z94" s="75" t="e">
@@ -10844,7 +10845,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="61" t="s">
         <v>463</v>
       </c>
@@ -10876,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B95),(B95-1)&amp;"/"&amp;B95,B95&amp;"/"&amp;(B95+1))</f>
         <v>4037/4038</v>
       </c>
       <c r="L95" s="61" t="str">
@@ -10884,11 +10885,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M95" s="12">
-        <f t="shared" si="26"/>
+        <f>I95-F95</f>
         <v>3.6689814813144039E-2</v>
       </c>
       <c r="N95" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M95:$M95)</f>
         <v>52.833333330927417</v>
       </c>
       <c r="O95" s="13"/>
@@ -10896,27 +10897,27 @@
       <c r="Q95" s="62"/>
       <c r="R95" s="62"/>
       <c r="T95" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E95-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I95+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B95&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 16:33:16-0600',mode:absolute,to:'2016-05-20 17:29:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U95" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y95&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V95" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A95,3))-VALUE(LEFT(A94,3))</f>
         <v>1</v>
       </c>
       <c r="W95" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D95,LEN(D95)-4)/10000</f>
         <v>23.297699999999999</v>
       </c>
       <c r="X95" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H95,LEN(H95)-4)/10000</f>
         <v>1.49E-2</v>
       </c>
       <c r="Y95" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X95-W95)</f>
         <v>23.282799999999998</v>
       </c>
       <c r="Z95" s="75" t="e">
@@ -10928,7 +10929,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="61" t="s">
         <v>534</v>
       </c>
@@ -10960,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B96),(B96-1)&amp;"/"&amp;B96,B96&amp;"/"&amp;(B96+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L96" s="61" t="str">
@@ -10968,11 +10969,11 @@
         <v>STEWART</v>
       </c>
       <c r="M96" s="12">
-        <f t="shared" si="26"/>
+        <f>I96-F96</f>
         <v>3.4317129633564036E-2</v>
       </c>
       <c r="N96" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M96:$M96)</f>
         <v>49.416666672332212</v>
       </c>
       <c r="O96" s="13"/>
@@ -10980,27 +10981,27 @@
       <c r="Q96" s="62"/>
       <c r="R96" s="62"/>
       <c r="T96" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E96-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I96+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B96&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 15:55:38-0600',mode:absolute,to:'2016-05-20 16:48:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U96" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y96&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V96" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A96,3))-VALUE(LEFT(A95,3))</f>
         <v>1</v>
       </c>
       <c r="W96" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D96,LEN(D96)-4)/10000</f>
         <v>4.5100000000000001E-2</v>
       </c>
       <c r="X96" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H96,LEN(H96)-4)/10000</f>
         <v>23.330400000000001</v>
       </c>
       <c r="Y96" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X96-W96)</f>
         <v>23.285299999999999</v>
       </c>
       <c r="Z96" s="75" t="e">
@@ -11012,7 +11013,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="61" t="s">
         <v>526</v>
       </c>
@@ -11044,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B97),(B97-1)&amp;"/"&amp;B97,B97&amp;"/"&amp;(B97+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L97" s="61" t="str">
@@ -11052,11 +11053,11 @@
         <v>STEWART</v>
       </c>
       <c r="M97" s="12">
-        <f t="shared" si="26"/>
+        <f>I97-F97</f>
         <v>3.424768518016208E-2</v>
       </c>
       <c r="N97" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M97:$M97)</f>
         <v>49.316666659433395</v>
       </c>
       <c r="O97" s="13"/>
@@ -11064,27 +11065,27 @@
       <c r="Q97" s="62"/>
       <c r="R97" s="62"/>
       <c r="T97" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E97-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I97+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B97&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 16:49:46-0600',mode:absolute,to:'2016-05-20 17:42:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U97" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y97&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V97" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A97,3))-VALUE(LEFT(A96,3))</f>
         <v>1</v>
       </c>
       <c r="W97" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D97,LEN(D97)-4)/10000</f>
         <v>23.299299999999999</v>
       </c>
       <c r="X97" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H97,LEN(H97)-4)/10000</f>
         <v>1.49E-2</v>
       </c>
       <c r="Y97" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X97-W97)</f>
         <v>23.284399999999998</v>
       </c>
       <c r="Z97" s="75" t="e">
@@ -11096,7 +11097,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="61" t="s">
         <v>461</v>
       </c>
@@ -11128,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B98),(B98-1)&amp;"/"&amp;B98,B98&amp;"/"&amp;(B98+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L98" s="61" t="str">
@@ -11136,11 +11137,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M98" s="12">
-        <f t="shared" si="26"/>
+        <f>I98-F98</f>
         <v>2.7037037034460809E-2</v>
       </c>
       <c r="N98" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M98:$M98)</f>
         <v>38.933333329623565</v>
       </c>
       <c r="O98" s="13"/>
@@ -11148,27 +11149,27 @@
       <c r="Q98" s="62"/>
       <c r="R98" s="62"/>
       <c r="T98" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E98-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I98+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B98&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 16:08:42-0600',mode:absolute,to:'2016-05-20 16:55:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U98" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y98&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V98" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A98,3))-VALUE(LEFT(A97,3))</f>
         <v>1</v>
       </c>
       <c r="W98" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D98,LEN(D98)-4)/10000</f>
         <v>4.53E-2</v>
       </c>
       <c r="X98" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H98,LEN(H98)-4)/10000</f>
         <v>23.3278</v>
       </c>
       <c r="Y98" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X98-W98)</f>
         <v>23.282499999999999</v>
       </c>
       <c r="Z98" s="75" t="e">
@@ -11180,7 +11181,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="61" t="s">
         <v>497</v>
       </c>
@@ -11212,7 +11213,7 @@
         <v>1</v>
       </c>
       <c r="K99" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B99),(B99-1)&amp;"/"&amp;B99,B99&amp;"/"&amp;(B99+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L99" s="61" t="str">
@@ -11220,11 +11221,11 @@
         <v>ROCHA</v>
       </c>
       <c r="M99" s="12">
-        <f t="shared" si="26"/>
+        <f>I99-F99</f>
         <v>3.1192129630653653E-2</v>
       </c>
       <c r="N99" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M99:$M99)</f>
         <v>44.916666668141261</v>
       </c>
       <c r="O99" s="13"/>
@@ -11232,27 +11233,27 @@
       <c r="Q99" s="62"/>
       <c r="R99" s="62"/>
       <c r="T99" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E99-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I99+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B99&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 17:05:40-0600',mode:absolute,to:'2016-05-20 17:54:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U99" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y99&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V99" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A99,3))-VALUE(LEFT(A98,3))</f>
         <v>1</v>
       </c>
       <c r="W99" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D99,LEN(D99)-4)/10000</f>
         <v>23.2973</v>
       </c>
       <c r="X99" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H99,LEN(H99)-4)/10000</f>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y99" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X99-W99)</f>
         <v>23.282799999999998</v>
       </c>
       <c r="Z99" s="75">
@@ -11264,7 +11265,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="100" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="61" t="s">
         <v>462</v>
       </c>
@@ -11296,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B100),(B100-1)&amp;"/"&amp;B100,B100&amp;"/"&amp;(B100+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L100" s="61" t="str">
@@ -11304,11 +11305,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M100" s="12">
-        <f t="shared" si="26"/>
+        <f>I100-F100</f>
         <v>2.6307870371965691E-2</v>
       </c>
       <c r="N100" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M100:$M100)</f>
         <v>37.883333335630596</v>
       </c>
       <c r="O100" s="13"/>
@@ -11316,27 +11317,27 @@
       <c r="Q100" s="62"/>
       <c r="R100" s="62"/>
       <c r="T100" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E100-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I100+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B100&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 16:27:07-0600',mode:absolute,to:'2016-05-20 17:10:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U100" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y100&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V100" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A100,3))-VALUE(LEFT(A99,3))</f>
         <v>1</v>
       </c>
       <c r="W100" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D100,LEN(D100)-4)/10000</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X100" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H100,LEN(H100)-4)/10000</f>
         <v>23.331900000000001</v>
       </c>
       <c r="Y100" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X100-W100)</f>
         <v>23.285299999999999</v>
       </c>
       <c r="Z100" s="75" t="e">
@@ -11348,7 +11349,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="61" t="s">
         <v>505</v>
       </c>
@@ -11380,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B101),(B101-1)&amp;"/"&amp;B101,B101&amp;"/"&amp;(B101+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L101" s="61" t="str">
@@ -11388,11 +11389,11 @@
         <v>WEBSTER</v>
       </c>
       <c r="M101" s="12">
-        <f t="shared" si="26"/>
+        <f>I101-F101</f>
         <v>3.4618055557075422E-2</v>
       </c>
       <c r="N101" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M101:$M101)</f>
         <v>49.850000002188608</v>
       </c>
       <c r="O101" s="13"/>
@@ -11400,27 +11401,27 @@
       <c r="Q101" s="62"/>
       <c r="R101" s="62"/>
       <c r="T101" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E101-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I101+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B101&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 17:17:56-0600',mode:absolute,to:'2016-05-20 18:10:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U101" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y101&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V101" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A101,3))-VALUE(LEFT(A100,3))</f>
         <v>1</v>
       </c>
       <c r="W101" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D101,LEN(D101)-4)/10000</f>
         <v>23.3</v>
       </c>
       <c r="X101" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H101,LEN(H101)-4)/10000</f>
         <v>1.6299999999999999E-2</v>
       </c>
       <c r="Y101" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X101-W101)</f>
         <v>23.2837</v>
       </c>
       <c r="Z101" s="75" t="e">
@@ -11432,7 +11433,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="61" t="s">
         <v>530</v>
       </c>
@@ -11464,7 +11465,7 @@
         <v>1</v>
       </c>
       <c r="K102" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B102),(B102-1)&amp;"/"&amp;B102,B102&amp;"/"&amp;(B102+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L102" s="61" t="str">
@@ -11472,11 +11473,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M102" s="12">
-        <f t="shared" si="26"/>
+        <f>I102-F102</f>
         <v>3.4247685187438037E-2</v>
       </c>
       <c r="N102" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M102:$M102)</f>
         <v>49.316666669910774</v>
       </c>
       <c r="O102" s="13"/>
@@ -11484,27 +11485,27 @@
       <c r="Q102" s="62"/>
       <c r="R102" s="62"/>
       <c r="T102" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E102-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I102+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B102&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 16:57:06-0600',mode:absolute,to:'2016-05-20 17:49:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4011%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U102" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y102&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V102" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A102,3))-VALUE(LEFT(A101,3))</f>
         <v>1</v>
       </c>
       <c r="W102" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D102,LEN(D102)-4)/10000</f>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X102" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H102,LEN(H102)-4)/10000</f>
         <v>23.333400000000001</v>
       </c>
       <c r="Y102" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X102-W102)</f>
         <v>23.288500000000003</v>
       </c>
       <c r="Z102" s="75">
@@ -11516,7 +11517,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="103" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="61" t="s">
         <v>465</v>
       </c>
@@ -11548,7 +11549,7 @@
         <v>2</v>
       </c>
       <c r="K103" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B103),(B103-1)&amp;"/"&amp;B103,B103&amp;"/"&amp;(B103+1))</f>
         <v>4011/4012</v>
       </c>
       <c r="L103" s="61" t="str">
@@ -11556,11 +11557,11 @@
         <v>SPECTOR</v>
       </c>
       <c r="M103" s="12">
-        <f t="shared" si="26"/>
+        <f>I103-F103</f>
         <v>3.6458333328482695E-2</v>
       </c>
       <c r="N103" s="13">
-        <f t="shared" si="5"/>
+        <f>24*60*SUM($M103:$M103)</f>
         <v>52.499999993015081</v>
       </c>
       <c r="O103" s="13"/>
@@ -11568,27 +11569,27 @@
       <c r="Q103" s="62"/>
       <c r="R103" s="62"/>
       <c r="T103" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E103-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I103+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B103&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 17:53:07-0600',mode:absolute,to:'2016-05-20 18:49:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4012%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U103" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y103&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V103" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A103,3))-VALUE(LEFT(A102,3))</f>
         <v>1</v>
       </c>
       <c r="W103" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D103,LEN(D103)-4)/10000</f>
         <v>23.296700000000001</v>
       </c>
       <c r="X103" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H103,LEN(H103)-4)/10000</f>
         <v>1.43E-2</v>
       </c>
       <c r="Y103" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X103-W103)</f>
         <v>23.282400000000003</v>
       </c>
       <c r="Z103" s="75">
@@ -11600,7 +11601,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="104" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="61" t="s">
         <v>506</v>
       </c>
@@ -11632,7 +11633,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B104),(B104-1)&amp;"/"&amp;B104,B104&amp;"/"&amp;(B104+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L104" s="61" t="str">
@@ -11640,11 +11641,11 @@
         <v>LOZA</v>
       </c>
       <c r="M104" s="12">
-        <f t="shared" si="26"/>
+        <f>I104-F104</f>
         <v>2.7974537042609882E-2</v>
       </c>
       <c r="N104" s="13">
-        <f t="shared" ref="N104:N144" si="33">24*60*SUM($M104:$M104)</f>
+        <f>24*60*SUM($M104:$M104)</f>
         <v>40.28333334135823</v>
       </c>
       <c r="O104" s="13"/>
@@ -11652,27 +11653,27 @@
       <c r="Q104" s="62"/>
       <c r="R104" s="62"/>
       <c r="T104" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E104-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I104+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B104&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 17:08:33-0600',mode:absolute,to:'2016-05-20 17:54:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U104" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y104&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V104" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A104,3))-VALUE(LEFT(A103,3))</f>
         <v>1</v>
       </c>
       <c r="W104" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D104,LEN(D104)-4)/10000</f>
         <v>4.4699999999999997E-2</v>
       </c>
       <c r="X104" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H104,LEN(H104)-4)/10000</f>
         <v>23.330400000000001</v>
       </c>
       <c r="Y104" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X104-W104)</f>
         <v>23.285700000000002</v>
       </c>
       <c r="Z104" s="75" t="e">
@@ -11684,7 +11685,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="61" t="s">
         <v>395</v>
       </c>
@@ -11716,7 +11717,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B105),(B105-1)&amp;"/"&amp;B105,B105&amp;"/"&amp;(B105+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L105" s="61" t="str">
@@ -11724,11 +11725,11 @@
         <v>LOZA</v>
       </c>
       <c r="M105" s="12">
-        <f t="shared" si="26"/>
+        <f>I105-F105</f>
         <v>3.6631944443797693E-2</v>
       </c>
       <c r="N105" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M105:$M105)</f>
         <v>52.749999999068677</v>
       </c>
       <c r="O105" s="13"/>
@@ -11736,27 +11737,27 @@
       <c r="Q105" s="62"/>
       <c r="R105" s="62"/>
       <c r="T105" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E105-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I105+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B105&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 18:00:46-0600',mode:absolute,to:'2016-05-20 18:57:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U105" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y105&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V105" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A105,3))-VALUE(LEFT(A104,3))</f>
         <v>1</v>
       </c>
       <c r="W105" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D105,LEN(D105)-4)/10000</f>
         <v>23.299099999999999</v>
       </c>
       <c r="X105" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H105,LEN(H105)-4)/10000</f>
         <v>1.3899999999999999E-2</v>
       </c>
       <c r="Y105" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X105-W105)</f>
         <v>23.2852</v>
       </c>
       <c r="Z105" s="75" t="e">
@@ -11768,7 +11769,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="61" t="s">
         <v>438</v>
       </c>
@@ -11800,7 +11801,7 @@
         <v>3</v>
       </c>
       <c r="K106" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B106),(B106-1)&amp;"/"&amp;B106,B106&amp;"/"&amp;(B106+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L106" s="61" t="str">
@@ -11808,11 +11809,11 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M106" s="12">
-        <f t="shared" si="26"/>
+        <f>I106-F106</f>
         <v>3.4386574072414078E-2</v>
       </c>
       <c r="N106" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M106:$M106)</f>
         <v>49.516666664276272</v>
       </c>
       <c r="O106" s="13"/>
@@ -11820,27 +11821,27 @@
       <c r="Q106" s="62"/>
       <c r="R106" s="62"/>
       <c r="T106" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E106-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I106+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B106&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 17:13:55-0600',mode:absolute,to:'2016-05-20 18:06:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4044%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U106" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y106&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V106" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A106,3))-VALUE(LEFT(A105,3))</f>
         <v>1</v>
       </c>
       <c r="W106" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D106,LEN(D106)-4)/10000</f>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X106" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H106,LEN(H106)-4)/10000</f>
         <v>23.3307</v>
       </c>
       <c r="Y106" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X106-W106)</f>
         <v>23.2852</v>
       </c>
       <c r="Z106" s="75">
@@ -11884,7 +11885,7 @@
         <v>1</v>
       </c>
       <c r="K107" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B107),(B107-1)&amp;"/"&amp;B107,B107&amp;"/"&amp;(B107+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L107" s="61" t="str">
@@ -11892,7 +11893,7 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M107" s="12">
-        <f t="shared" si="26"/>
+        <f>I107-F107</f>
         <v>2.4664351854880806E-2</v>
       </c>
       <c r="N107" s="13"/>
@@ -11908,27 +11909,27 @@
         <v>642</v>
       </c>
       <c r="T107" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E107-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I107+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B107&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 18:06:59-0600',mode:absolute,to:'2016-05-20 18:46:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U107" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y107&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V107" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A107,3))-VALUE(LEFT(A106,3))</f>
         <v>1</v>
       </c>
       <c r="W107" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D107,LEN(D107)-4)/10000</f>
         <v>23.298999999999999</v>
       </c>
       <c r="X107" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H107,LEN(H107)-4)/10000</f>
         <v>6.9531000000000001</v>
       </c>
       <c r="Y107" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X107-W107)</f>
         <v>16.3459</v>
       </c>
       <c r="Z107" s="75">
@@ -11940,7 +11941,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="108" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="61" t="s">
         <v>433</v>
       </c>
@@ -11972,7 +11973,7 @@
         <v>1</v>
       </c>
       <c r="K108" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B108),(B108-1)&amp;"/"&amp;B108,B108&amp;"/"&amp;(B108+1))</f>
         <v>4043/4044</v>
       </c>
       <c r="L108" s="61" t="str">
@@ -11980,7 +11981,7 @@
         <v>LOCKLEAR</v>
       </c>
       <c r="M108" s="12">
-        <f t="shared" si="26"/>
+        <f>I108-F108</f>
         <v>7.5231480877846479E-4</v>
       </c>
       <c r="N108" s="13"/>
@@ -11989,27 +11990,27 @@
       <c r="Q108" s="62"/>
       <c r="R108" s="62"/>
       <c r="T108" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E108-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I108+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B108&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 18:47:19-0600',mode:absolute,to:'2016-05-20 18:51:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4043%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U108" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y108&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V108" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A108,3))-VALUE(LEFT(A107,3))</f>
         <v>0</v>
       </c>
       <c r="W108" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D108,LEN(D108)-4)/10000</f>
         <v>6.4115000000000002</v>
       </c>
       <c r="X108" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H108,LEN(H108)-4)/10000</f>
         <v>6.2824</v>
       </c>
       <c r="Y108" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X108-W108)</f>
         <v>0.12910000000000021</v>
       </c>
       <c r="Z108" s="75">
@@ -12021,7 +12022,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="109" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="61" t="s">
         <v>387</v>
       </c>
@@ -12053,7 +12054,7 @@
         <v>1</v>
       </c>
       <c r="K109" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B109),(B109-1)&amp;"/"&amp;B109,B109&amp;"/"&amp;(B109+1))</f>
         <v>4037/4038</v>
       </c>
       <c r="L109" s="61" t="str">
@@ -12061,11 +12062,11 @@
         <v>CHANDLER</v>
       </c>
       <c r="M109" s="12">
-        <f t="shared" si="26"/>
+        <f>I109-F109</f>
         <v>3.347222221782431E-2</v>
       </c>
       <c r="N109" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M109:$M109)</f>
         <v>48.199999993667006</v>
       </c>
       <c r="O109" s="13"/>
@@ -12073,27 +12074,27 @@
       <c r="Q109" s="62"/>
       <c r="R109" s="62"/>
       <c r="T109" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E109-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I109+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B109&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 17:30:00-0600',mode:absolute,to:'2016-05-20 18:21:36-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4038%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U109" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y109&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V109" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A109,3))-VALUE(LEFT(A108,3))</f>
         <v>1</v>
       </c>
       <c r="W109" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D109,LEN(D109)-4)/10000</f>
         <v>4.7100000000000003E-2</v>
       </c>
       <c r="X109" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H109,LEN(H109)-4)/10000</f>
         <v>23.328900000000001</v>
       </c>
       <c r="Y109" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X109-W109)</f>
         <v>23.2818</v>
       </c>
       <c r="Z109" s="75">
@@ -12137,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B110),(B110-1)&amp;"/"&amp;B110,B110&amp;"/"&amp;(B110+1))</f>
         <v>4037/4038</v>
       </c>
       <c r="L110" s="61" t="str">
@@ -12145,7 +12146,7 @@
         <v>CHANDLER</v>
       </c>
       <c r="M110" s="12">
-        <f t="shared" si="26"/>
+        <f>I110-F110</f>
         <v>1.8645833333721384E-2</v>
       </c>
       <c r="N110" s="13"/>
@@ -12161,27 +12162,27 @@
         <v>642</v>
       </c>
       <c r="T110" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E110-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I110+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B110&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 18:23:01-0600',mode:absolute,to:'2016-05-20 18:53:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U110" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y110&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V110" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A110,3))-VALUE(LEFT(A109,3))</f>
         <v>1</v>
       </c>
       <c r="W110" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D110,LEN(D110)-4)/10000</f>
         <v>23.297000000000001</v>
       </c>
       <c r="X110" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H110,LEN(H110)-4)/10000</f>
         <v>6.9626999999999999</v>
       </c>
       <c r="Y110" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X110-W110)</f>
         <v>16.334299999999999</v>
       </c>
       <c r="Z110" s="75" t="e">
@@ -12193,7 +12194,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="61" t="s">
         <v>397</v>
       </c>
@@ -12225,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B111),(B111-1)&amp;"/"&amp;B111,B111&amp;"/"&amp;(B111+1))</f>
         <v>4037/4038</v>
       </c>
       <c r="L111" s="61" t="str">
@@ -12233,7 +12234,7 @@
         <v>CHANDLER</v>
       </c>
       <c r="M111" s="12">
-        <f t="shared" si="26"/>
+        <f>I111-F111</f>
         <v>1.321759259008104E-2</v>
       </c>
       <c r="N111" s="13"/>
@@ -12242,27 +12243,27 @@
       <c r="Q111" s="62"/>
       <c r="R111" s="62"/>
       <c r="T111" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E111-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I111+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B111&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 18:54:55-0600',mode:absolute,to:'2016-05-20 19:16:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U111" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y111&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V111" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A111,3))-VALUE(LEFT(A110,3))</f>
         <v>0</v>
       </c>
       <c r="W111" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D111,LEN(D111)-4)/10000</f>
         <v>6.4162999999999997</v>
       </c>
       <c r="X111" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H111,LEN(H111)-4)/10000</f>
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="Y111" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X111-W111)</f>
         <v>6.4017999999999997</v>
       </c>
       <c r="Z111" s="75" t="e">
@@ -12274,7 +12275,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="61" t="s">
         <v>464</v>
       </c>
@@ -12306,7 +12307,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B112),(B112-1)&amp;"/"&amp;B112,B112&amp;"/"&amp;(B112+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L112" s="61" t="str">
@@ -12314,11 +12315,11 @@
         <v>ADANE</v>
       </c>
       <c r="M112" s="12">
-        <f t="shared" si="26"/>
+        <f>I112-F112</f>
         <v>3.1377314815472346E-2</v>
       </c>
       <c r="N112" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M112:$M112)</f>
         <v>45.183333334280178</v>
       </c>
       <c r="O112" s="13"/>
@@ -12326,27 +12327,27 @@
       <c r="Q112" s="62"/>
       <c r="R112" s="62"/>
       <c r="T112" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E112-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I112+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B112&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 17:46:49-0600',mode:absolute,to:'2016-05-20 18:38:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U112" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y112&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V112" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A112,3))-VALUE(LEFT(A111,3))</f>
         <v>1</v>
       </c>
       <c r="W112" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D112,LEN(D112)-4)/10000</f>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X112" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H112,LEN(H112)-4)/10000</f>
         <v>23.330500000000001</v>
       </c>
       <c r="Y112" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X112-W112)</f>
         <v>23.284300000000002</v>
       </c>
       <c r="Z112" s="75" t="e">
@@ -12358,7 +12359,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="61" t="s">
         <v>434</v>
       </c>
@@ -12390,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B113),(B113-1)&amp;"/"&amp;B113,B113&amp;"/"&amp;(B113+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L113" s="61" t="str">
@@ -12398,11 +12399,11 @@
         <v>ADANE</v>
       </c>
       <c r="M113" s="12">
-        <f t="shared" si="26"/>
+        <f>I113-F113</f>
         <v>2.9467592590663116E-2</v>
       </c>
       <c r="N113" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M113:$M113)</f>
         <v>42.433333330554888</v>
       </c>
       <c r="O113" s="13"/>
@@ -12410,27 +12411,27 @@
       <c r="Q113" s="62"/>
       <c r="R113" s="62"/>
       <c r="T113" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E113-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I113+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B113&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 18:42:50-0600',mode:absolute,to:'2016-05-20 19:28:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U113" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y113&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V113" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A113,3))-VALUE(LEFT(A112,3))</f>
         <v>1</v>
       </c>
       <c r="W113" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D113,LEN(D113)-4)/10000</f>
         <v>23.2971</v>
       </c>
       <c r="X113" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H113,LEN(H113)-4)/10000</f>
         <v>1.32E-2</v>
       </c>
       <c r="Y113" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X113-W113)</f>
         <v>23.283899999999999</v>
       </c>
       <c r="Z113" s="75" t="e">
@@ -12442,7 +12443,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="61" t="s">
         <v>436</v>
       </c>
@@ -12474,7 +12475,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B114),(B114-1)&amp;"/"&amp;B114,B114&amp;"/"&amp;(B114+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L114" s="61" t="str">
@@ -12482,11 +12483,11 @@
         <v>NELSON</v>
       </c>
       <c r="M114" s="12">
-        <f t="shared" si="26"/>
+        <f>I114-F114</f>
         <v>3.5960648143372964E-2</v>
       </c>
       <c r="N114" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M114:$M114)</f>
         <v>51.783333326457068</v>
       </c>
       <c r="O114" s="13"/>
@@ -12494,27 +12495,27 @@
       <c r="Q114" s="62"/>
       <c r="R114" s="62"/>
       <c r="T114" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E114-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I114+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B114&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 18:06:52-0600',mode:absolute,to:'2016-05-20 19:07:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U114" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y114&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V114" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A114,3))-VALUE(LEFT(A113,3))</f>
         <v>1</v>
       </c>
       <c r="W114" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D114,LEN(D114)-4)/10000</f>
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="X114" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H114,LEN(H114)-4)/10000</f>
         <v>23.328600000000002</v>
       </c>
       <c r="Y114" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X114-W114)</f>
         <v>23.282900000000001</v>
       </c>
       <c r="Z114" s="75" t="e">
@@ -12526,7 +12527,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="61" t="s">
         <v>549</v>
       </c>
@@ -12558,7 +12559,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B115),(B115-1)&amp;"/"&amp;B115,B115&amp;"/"&amp;(B115+1))</f>
         <v>4017/4018</v>
       </c>
       <c r="L115" s="61" t="str">
@@ -12566,11 +12567,11 @@
         <v>NELSON</v>
       </c>
       <c r="M115" s="12">
-        <f t="shared" si="26"/>
+        <f>I115-F115</f>
         <v>3.6550925928167999E-2</v>
       </c>
       <c r="N115" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M115:$M115)</f>
         <v>52.633333336561918</v>
       </c>
       <c r="O115" s="13"/>
@@ -12578,27 +12579,27 @@
       <c r="Q115" s="62"/>
       <c r="R115" s="62"/>
       <c r="T115" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E115-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I115+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B115&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 19:08:14-0600',mode:absolute,to:'2016-05-20 20:04:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U115" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y115&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V115" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A115,3))-VALUE(LEFT(A114,3))</f>
         <v>1</v>
       </c>
       <c r="W115" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D115,LEN(D115)-4)/10000</f>
         <v>23.297699999999999</v>
       </c>
       <c r="X115" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H115,LEN(H115)-4)/10000</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y115" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X115-W115)</f>
         <v>23.282699999999998</v>
       </c>
       <c r="Z115" s="75" t="e">
@@ -12610,7 +12611,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="61" t="s">
         <v>388</v>
       </c>
@@ -12642,7 +12643,7 @@
         <v>1</v>
       </c>
       <c r="K116" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B116),(B116-1)&amp;"/"&amp;B116,B116&amp;"/"&amp;(B116+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L116" s="61" t="str">
@@ -12650,11 +12651,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M116" s="12">
-        <f t="shared" si="26"/>
+        <f>I116-F116</f>
         <v>3.5208333334594499E-2</v>
       </c>
       <c r="N116" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M116:$M116)</f>
         <v>50.700000001816079</v>
       </c>
       <c r="O116" s="13"/>
@@ -12662,27 +12663,27 @@
       <c r="Q116" s="62"/>
       <c r="R116" s="62"/>
       <c r="T116" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E116-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I116+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B116&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 18:18:28-0600',mode:absolute,to:'2016-05-20 19:12:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4024%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U116" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y116&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V116" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A116,3))-VALUE(LEFT(A115,3))</f>
         <v>1</v>
       </c>
       <c r="W116" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D116,LEN(D116)-4)/10000</f>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X116" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H116,LEN(H116)-4)/10000</f>
         <v>23.3306</v>
       </c>
       <c r="Y116" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X116-W116)</f>
         <v>23.283999999999999</v>
       </c>
       <c r="Z116" s="75">
@@ -12694,7 +12695,7 @@
         <v>SIGNAL</v>
       </c>
     </row>
-    <row r="117" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="61" t="s">
         <v>550</v>
       </c>
@@ -12726,7 +12727,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B117),(B117-1)&amp;"/"&amp;B117,B117&amp;"/"&amp;(B117+1))</f>
         <v>4023/4024</v>
       </c>
       <c r="L117" s="61" t="str">
@@ -12734,11 +12735,11 @@
         <v>GOODNIGHT</v>
       </c>
       <c r="M117" s="12">
-        <f t="shared" si="26"/>
+        <f>I117-F117</f>
         <v>3.5127314811688848E-2</v>
       </c>
       <c r="N117" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M117:$M117)</f>
         <v>50.583333328831941</v>
       </c>
       <c r="O117" s="13"/>
@@ -12746,27 +12747,27 @@
       <c r="Q117" s="62"/>
       <c r="R117" s="62"/>
       <c r="T117" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E117-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I117+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B117&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 19:16:31-0600',mode:absolute,to:'2016-05-20 20:10:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U117" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y117&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V117" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A117,3))-VALUE(LEFT(A116,3))</f>
         <v>1</v>
       </c>
       <c r="W117" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D117,LEN(D117)-4)/10000</f>
         <v>23.3002</v>
       </c>
       <c r="X117" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H117,LEN(H117)-4)/10000</f>
         <v>1.72E-2</v>
       </c>
       <c r="Y117" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X117-W117)</f>
         <v>23.283000000000001</v>
       </c>
       <c r="Z117" s="75" t="e">
@@ -12778,7 +12779,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="61" t="s">
         <v>398</v>
       </c>
@@ -12810,7 +12811,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B118),(B118-1)&amp;"/"&amp;B118,B118&amp;"/"&amp;(B118+1))</f>
         <v>4029/4030</v>
       </c>
       <c r="L118" s="61" t="str">
@@ -12818,11 +12819,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M118" s="12">
-        <f t="shared" si="26"/>
+        <f>I118-F118</f>
         <v>2.8113425927585922E-2</v>
       </c>
       <c r="N118" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M118:$M118)</f>
         <v>40.483333335723728</v>
       </c>
       <c r="O118" s="13"/>
@@ -12830,27 +12831,27 @@
       <c r="Q118" s="62"/>
       <c r="R118" s="62"/>
       <c r="T118" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E118-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I118+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B118&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 18:41:29-0600',mode:absolute,to:'2016-05-20 19:25:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U118" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y118&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V118" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A118,3))-VALUE(LEFT(A117,3))</f>
         <v>1</v>
       </c>
       <c r="W118" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D118,LEN(D118)-4)/10000</f>
         <v>0.12239999999999999</v>
       </c>
       <c r="X118" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H118,LEN(H118)-4)/10000</f>
         <v>23.329699999999999</v>
       </c>
       <c r="Y118" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X118-W118)</f>
         <v>23.2073</v>
       </c>
       <c r="Z118" s="75" t="e">
@@ -12862,7 +12863,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="61" t="s">
         <v>404</v>
       </c>
@@ -12894,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B119),(B119-1)&amp;"/"&amp;B119,B119&amp;"/"&amp;(B119+1))</f>
         <v>4029/4030</v>
       </c>
       <c r="L119" s="61" t="str">
@@ -12902,11 +12903,11 @@
         <v>GRASTON</v>
       </c>
       <c r="M119" s="12">
-        <f t="shared" si="26"/>
+        <f>I119-F119</f>
         <v>3.3668981479422655E-2</v>
       </c>
       <c r="N119" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M119:$M119)</f>
         <v>48.483333330368623</v>
       </c>
       <c r="O119" s="13"/>
@@ -12914,27 +12915,27 @@
       <c r="Q119" s="62"/>
       <c r="R119" s="62"/>
       <c r="T119" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E119-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I119+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B119&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 19:26:13-0600',mode:absolute,to:'2016-05-20 20:18:12-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U119" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y119&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V119" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A119,3))-VALUE(LEFT(A118,3))</f>
         <v>1</v>
       </c>
       <c r="W119" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D119,LEN(D119)-4)/10000</f>
         <v>23.296900000000001</v>
       </c>
       <c r="X119" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H119,LEN(H119)-4)/10000</f>
         <v>4.8899999999999999E-2</v>
       </c>
       <c r="Y119" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X119-W119)</f>
         <v>23.248000000000001</v>
       </c>
       <c r="Z119" s="75" t="e">
@@ -12946,7 +12947,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="61" t="s">
         <v>548</v>
       </c>
@@ -12978,7 +12979,7 @@
         <v>1</v>
       </c>
       <c r="K120" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B120),(B120-1)&amp;"/"&amp;B120,B120&amp;"/"&amp;(B120+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L120" s="61" t="str">
@@ -12986,11 +12987,11 @@
         <v>YORK</v>
       </c>
       <c r="M120" s="12">
-        <f t="shared" si="26"/>
+        <f>I120-F120</f>
         <v>3.0763888891669922E-2</v>
       </c>
       <c r="N120" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M120:$M120)</f>
         <v>44.300000004004687</v>
       </c>
       <c r="O120" s="13"/>
@@ -12998,27 +12999,27 @@
       <c r="Q120" s="62"/>
       <c r="R120" s="62"/>
       <c r="T120" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E120-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I120+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B120&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 19:04:18-0600',mode:absolute,to:'2016-05-20 19:51:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U120" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y120&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V120" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A120,3))-VALUE(LEFT(A119,3))</f>
         <v>1</v>
       </c>
       <c r="W120" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D120,LEN(D120)-4)/10000</f>
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="X120" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H120,LEN(H120)-4)/10000</f>
         <v>23.330500000000001</v>
       </c>
       <c r="Y120" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X120-W120)</f>
         <v>23.283799999999999</v>
       </c>
       <c r="Z120" s="75">
@@ -13030,7 +13031,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="121" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="61" t="s">
         <v>432</v>
       </c>
@@ -13062,7 +13063,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B121),(B121-1)&amp;"/"&amp;B121,B121&amp;"/"&amp;(B121+1))</f>
         <v>4041/4042</v>
       </c>
       <c r="L121" s="61" t="str">
@@ -13070,11 +13071,11 @@
         <v>YORK</v>
       </c>
       <c r="M121" s="12">
-        <f t="shared" si="26"/>
+        <f>I121-F121</f>
         <v>3.2627314816636499E-2</v>
       </c>
       <c r="N121" s="13">
-        <f t="shared" si="33"/>
+        <f>24*60*SUM($M121:$M121)</f>
         <v>46.983333335956559</v>
       </c>
       <c r="O121" s="13"/>
@@ -13082,27 +13083,27 @@
       <c r="Q121" s="62"/>
       <c r="R121" s="62"/>
       <c r="T121" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E121-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I121+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B121&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 19:52:41-0600',mode:absolute,to:'2016-05-20 20:43:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U121" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y121&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V121" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A121,3))-VALUE(LEFT(A120,3))</f>
         <v>1</v>
       </c>
       <c r="W121" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D121,LEN(D121)-4)/10000</f>
         <v>23.298400000000001</v>
       </c>
       <c r="X121" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H121,LEN(H121)-4)/10000</f>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y121" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X121-W121)</f>
         <v>23.282800000000002</v>
       </c>
       <c r="Z121" s="75" t="e">
@@ -13146,7 +13147,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISEVEN(B122),(B122-1)&amp;"/"&amp;B122,B122&amp;"/"&amp;(B122+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L122" s="61" t="str">
@@ -13154,7 +13155,7 @@
         <v>LEVERE</v>
       </c>
       <c r="M122" s="12">
-        <f t="shared" si="26"/>
+        <f>I122-F122</f>
         <v>1.0995370394084603E-3</v>
       </c>
       <c r="N122" s="13"/>
@@ -13170,27 +13171,27 @@
         <v>637</v>
       </c>
       <c r="T122" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f>"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E122-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I122+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B122&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 19:32:32-0600',mode:absolute,to:'2016-05-20 19:37:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U122" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(Y122&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
       <c r="V122" s="74">
-        <f t="shared" si="29"/>
+        <f>VALUE(LEFT(A122,3))-VALUE(LEFT(A121,3))</f>
         <v>1</v>
       </c>
       <c r="W122" s="74">
-        <f t="shared" si="30"/>
+        <f>RIGHT(D122,LEN(D122)-4)/10000</f>
         <v>4.4900000000000002E-2</v>
       </c>
       <c r="X122" s="74">
-        <f t="shared" si="31"/>
+        <f>RIGHT(H122,LEN(H122)-4)/10000</f>
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="Y122" s="74">
-        <f t="shared" si="32"/>
+        <f>ABS(X122-W122)</f>
         <v>5.21E-2</v>
       </c>
       <c r="Z122" s="75" t="e">
@@ -13202,7 +13203,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="61" t="s">
         <v>537</v>
       </c>
@@ -13234,7 +13235,7 @@
         <v>1</v>
       </c>
       <c r="K123" s="61" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="K71:K133" si="25">IF(ISEVEN(B123),(B123-1)&amp;"/"&amp;B123,B123&amp;"/"&amp;(B123+1))</f>
         <v>4007/4008</v>
       </c>
       <c r="L123" s="61" t="str">
@@ -13242,11 +13243,11 @@
         <v>LEVERE</v>
       </c>
       <c r="M123" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="M71:M133" si="26">I123-F123</f>
         <v>3.6597222220734693E-2</v>
       </c>
       <c r="N123" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="N104:N144" si="27">24*60*SUM($M123:$M123)</f>
         <v>52.699999997857958</v>
       </c>
       <c r="O123" s="13"/>
@@ -13254,27 +13255,27 @@
       <c r="Q123" s="62"/>
       <c r="R123" s="62"/>
       <c r="T123" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="T71:T133" si="28">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E123-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I123+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B123&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 20:32:07-0600',mode:absolute,to:'2016-05-20 21:28:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U123" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="U71:U133" si="29">IF(Y123&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
       <c r="V123" s="74">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="V71:V133" si="30">VALUE(LEFT(A123,3))-VALUE(LEFT(A122,3))</f>
         <v>1</v>
       </c>
       <c r="W123" s="74">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="W71:W133" si="31">RIGHT(D123,LEN(D123)-4)/10000</f>
         <v>23.296500000000002</v>
       </c>
       <c r="X123" s="74">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="X71:X133" si="32">RIGHT(H123,LEN(H123)-4)/10000</f>
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="Y123" s="74">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="Y71:Y133" si="33">ABS(X123-W123)</f>
         <v>23.279100000000003</v>
       </c>
       <c r="Z123" s="75">
@@ -13286,7 +13287,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="124" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="61" t="s">
         <v>496</v>
       </c>
@@ -13330,7 +13331,7 @@
         <v>3.8009259253158234E-2</v>
       </c>
       <c r="N124" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>54.733333324547857</v>
       </c>
       <c r="O124" s="13"/>
@@ -13338,27 +13339,27 @@
       <c r="Q124" s="62"/>
       <c r="R124" s="62"/>
       <c r="T124" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 21:07:32-0600',mode:absolute,to:'2016-05-20 22:05:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4023%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U124" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V124" s="74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="W124" s="74">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>23.297699999999999</v>
       </c>
       <c r="X124" s="74">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y124" s="74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>23.282699999999998</v>
       </c>
       <c r="Z124" s="75" t="e">
@@ -13370,7 +13371,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="61" t="s">
         <v>544</v>
       </c>
@@ -13414,7 +13415,7 @@
         <v>3.5659722219861578E-2</v>
       </c>
       <c r="N125" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>51.349999996600673</v>
       </c>
       <c r="O125" s="13"/>
@@ -13422,27 +13423,27 @@
       <c r="Q125" s="62"/>
       <c r="R125" s="62"/>
       <c r="T125" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 20:23:15-0600',mode:absolute,to:'2016-05-20 21:18:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U125" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V125" s="74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W125" s="74">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>7.8100000000000003E-2</v>
       </c>
       <c r="X125" s="74">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>23.329499999999999</v>
       </c>
       <c r="Y125" s="74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>23.2514</v>
       </c>
       <c r="Z125" s="75" t="e">
@@ -13454,7 +13455,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="61" t="s">
         <v>545</v>
       </c>
@@ -13498,7 +13499,7 @@
         <v>3.5833333335176576E-2</v>
       </c>
       <c r="N126" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>51.600000002654269</v>
       </c>
       <c r="O126" s="13"/>
@@ -13506,27 +13507,27 @@
       <c r="Q126" s="62"/>
       <c r="R126" s="62"/>
       <c r="T126" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 21:21:55-0600',mode:absolute,to:'2016-05-20 22:16:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4030%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U126" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V126" s="74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W126" s="74">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>23.2971</v>
       </c>
       <c r="X126" s="74">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="Y126" s="74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>23.281500000000001</v>
       </c>
       <c r="Z126" s="75">
@@ -13538,7 +13539,7 @@
         <v>GRADE CROSSING</v>
       </c>
     </row>
-    <row r="127" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="61" t="s">
         <v>406</v>
       </c>
@@ -13582,7 +13583,7 @@
         <v>3.623842592787696E-2</v>
       </c>
       <c r="N127" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>52.183333336142823</v>
       </c>
       <c r="O127" s="13"/>
@@ -13590,27 +13591,27 @@
       <c r="Q127" s="62"/>
       <c r="R127" s="62"/>
       <c r="T127" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 20:46:09-0600',mode:absolute,to:'2016-05-20 21:47:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4042%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U127" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V127" s="74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W127" s="74">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="X127" s="74">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>23.330100000000002</v>
       </c>
       <c r="Y127" s="74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>23.2835</v>
       </c>
       <c r="Z127" s="75" t="e">
@@ -13622,7 +13623,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="61" t="s">
         <v>539</v>
       </c>
@@ -13666,7 +13667,7 @@
         <v>3.4351851849351078E-2</v>
       </c>
       <c r="N128" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>49.466666663065553</v>
       </c>
       <c r="O128" s="13"/>
@@ -13674,27 +13675,27 @@
       <c r="Q128" s="62"/>
       <c r="R128" s="62"/>
       <c r="T128" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 21:48:33-0600',mode:absolute,to:'2016-05-20 22:41:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4041%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U128" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V128" s="74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W128" s="74">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>23.298400000000001</v>
       </c>
       <c r="X128" s="74">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y128" s="74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>23.283000000000001</v>
       </c>
       <c r="Z128" s="75" t="e">
@@ -13706,7 +13707,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="61" t="s">
         <v>504</v>
       </c>
@@ -13750,7 +13751,7 @@
         <v>3.2268518516502809E-2</v>
       </c>
       <c r="N129" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>46.466666663764045</v>
       </c>
       <c r="O129" s="13"/>
@@ -13758,27 +13759,27 @@
       <c r="Q129" s="62"/>
       <c r="R129" s="62"/>
       <c r="T129" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 21:32:04-0600',mode:absolute,to:'2016-05-20 22:22:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U129" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V129" s="74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W129" s="74">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="X129" s="74">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>23.328600000000002</v>
       </c>
       <c r="Y129" s="74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>23.281300000000002</v>
       </c>
       <c r="Z129" s="75" t="e">
@@ -13790,7 +13791,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="61" t="s">
         <v>431</v>
       </c>
@@ -13834,7 +13835,7 @@
         <v>3.2106481477967463E-2</v>
       </c>
       <c r="N130" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>46.233333328273147</v>
       </c>
       <c r="O130" s="13"/>
@@ -13842,27 +13843,27 @@
       <c r="Q130" s="62"/>
       <c r="R130" s="62"/>
       <c r="T130" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 22:28:34-0600',mode:absolute,to:'2016-05-20 23:18:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U130" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V130" s="74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W130" s="74">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>23.296099999999999</v>
       </c>
       <c r="X130" s="74">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="Y130" s="74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>23.281099999999999</v>
       </c>
       <c r="Z130" s="75">
@@ -13874,7 +13875,7 @@
         <v>GRADE CROSSING</v>
       </c>
     </row>
-    <row r="131" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="61" t="s">
         <v>419</v>
       </c>
@@ -13918,7 +13919,7 @@
         <v>3.6261574074160308E-2</v>
       </c>
       <c r="N131" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>52.216666666790843</v>
       </c>
       <c r="O131" s="13"/>
@@ -13926,27 +13927,27 @@
       <c r="Q131" s="62"/>
       <c r="R131" s="62"/>
       <c r="T131" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 21:54:24-0600',mode:absolute,to:'2016-05-20 22:52:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U131" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V131" s="74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W131" s="74">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4.58E-2</v>
       </c>
       <c r="X131" s="74">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>23.3306</v>
       </c>
       <c r="Y131" s="74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>23.284800000000001</v>
       </c>
       <c r="Z131" s="75" t="e">
@@ -13958,7 +13959,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="61" t="s">
         <v>474</v>
       </c>
@@ -14002,7 +14003,7 @@
         <v>3.0393518522032537E-2</v>
       </c>
       <c r="N132" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>43.766666671726853</v>
       </c>
       <c r="O132" s="13"/>
@@ -14010,27 +14011,27 @@
       <c r="Q132" s="62"/>
       <c r="R132" s="62"/>
       <c r="T132" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 22:55:32-0600',mode:absolute,to:'2016-05-20 23:42:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U132" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V132" s="74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W132" s="74">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>23.299399999999999</v>
       </c>
       <c r="X132" s="74">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.54E-2</v>
       </c>
       <c r="Y132" s="74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>23.283999999999999</v>
       </c>
       <c r="Z132" s="75">
@@ -14042,7 +14043,7 @@
         <v>GRADE CROSSING</v>
       </c>
     </row>
-    <row r="133" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="61" t="s">
         <v>489</v>
       </c>
@@ -14086,7 +14087,7 @@
         <v>3.5011574072996154E-2</v>
       </c>
       <c r="N133" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>50.416666665114462</v>
       </c>
       <c r="O133" s="13"/>
@@ -14094,27 +14095,27 @@
       <c r="Q133" s="62"/>
       <c r="R133" s="62"/>
       <c r="T133" s="74" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-20 22:19:27-0600',mode:absolute,to:'2016-05-20 23:13:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4029%22')),sort:!(Time,asc))</v>
       </c>
       <c r="U133" s="74" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>N</v>
       </c>
       <c r="V133" s="74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="W133" s="74">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4.6199999999999998E-2</v>
       </c>
       <c r="X133" s="74">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>23.332899999999999</v>
       </c>
       <c r="Y133" s="74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>23.2867</v>
       </c>
       <c r="Z133" s="75" t="e">
@@ -14126,7 +14127,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="61" t="s">
         <v>513</v>
       </c>
@@ -14170,7 +14171,7 @@
         <v>3.5266203703940846E-2</v>
       </c>
       <c r="N134" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>50.783333333674818</v>
       </c>
       <c r="O134" s="13"/>
@@ -14210,7 +14211,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="61" t="s">
         <v>503</v>
       </c>
@@ -14254,7 +14255,7 @@
         <v>4.315972221957054E-2</v>
       </c>
       <c r="N135" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>62.149999996181577</v>
       </c>
       <c r="O135" s="13"/>
@@ -14294,7 +14295,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="61" t="s">
         <v>430</v>
       </c>
@@ -14338,7 +14339,7 @@
         <v>3.9722222216369119E-2</v>
       </c>
       <c r="N136" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>57.199999991571531</v>
       </c>
       <c r="O136" s="13"/>
@@ -14378,7 +14379,7 @@
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
     </row>
-    <row r="137" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="61" t="s">
         <v>551</v>
       </c>
@@ -14422,7 +14423,7 @@
         <v>3.7685185183363501E-2</v>
       </c>
       <c r="N137" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>54.266666664043441</v>
       </c>
       <c r="O137" s="13"/>
@@ -14462,7 +14463,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="61" t="s">
         <v>475</v>
       </c>
@@ -14506,7 +14507,7 @@
         <v>4.1446759256359655E-2</v>
       </c>
       <c r="N138" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>59.683333329157904</v>
       </c>
       <c r="O138" s="13"/>
@@ -14546,7 +14547,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="61" t="s">
         <v>547</v>
       </c>
@@ -14590,7 +14591,7 @@
         <v>4.3611111112113576E-2</v>
       </c>
       <c r="N139" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>62.80000000144355</v>
       </c>
       <c r="O139" s="13"/>
@@ -14630,7 +14631,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="61" t="s">
         <v>476</v>
       </c>
@@ -14674,7 +14675,7 @@
         <v>3.219907407037681E-2</v>
       </c>
       <c r="N140" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>46.366666661342606</v>
       </c>
       <c r="O140" s="13"/>
@@ -14714,7 +14715,7 @@
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
     </row>
-    <row r="141" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="61" t="s">
         <v>429</v>
       </c>
@@ -14758,7 +14759,7 @@
         <v>4.3356481481168885E-2</v>
       </c>
       <c r="N141" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>62.433333332883194</v>
       </c>
       <c r="O141" s="13"/>
@@ -14798,7 +14799,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="61" t="s">
         <v>502</v>
       </c>
@@ -14842,7 +14843,7 @@
         <v>3.25578703705105E-2</v>
       </c>
       <c r="N142" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>46.88333333353512</v>
       </c>
       <c r="O142" s="13"/>
@@ -14882,7 +14883,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="61" t="s">
         <v>407</v>
       </c>
@@ -14926,7 +14927,7 @@
         <v>2.9502314813726116E-2</v>
       </c>
       <c r="N143" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>42.483333331765607</v>
       </c>
       <c r="O143" s="13"/>
@@ -14966,7 +14967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="61" t="s">
         <v>477</v>
       </c>
@@ -15010,7 +15011,7 @@
         <v>3.3240740740438923E-2</v>
       </c>
       <c r="N144" s="13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="27"/>
         <v>47.866666666232049</v>
       </c>
       <c r="O144" s="13"/>
@@ -15523,7 +15524,13 @@
       <c r="AA161" s="56"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AA144"/>
+  <autoFilter ref="A2:AA144">
+    <filterColumn colId="16">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A3:Y144">
     <sortCondition ref="A3:A144"/>
   </sortState>
